--- a/お見積書（明細）.xlsx
+++ b/お見積書（明細）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ukish\Desktop\ひな形\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ukish\Desktop\GPT\estimate_app_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710C57B8-AF90-4AE0-A383-B35ADF9A229A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD03E23-BA66-48AD-94A9-BD887ED3EAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" tabRatio="725" autoFilterDateGrouping="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5080" yWindow="2600" windowWidth="19200" windowHeight="11250" tabRatio="725" activeTab="1" autoFilterDateGrouping="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="見積書0" sheetId="19" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="48">
   <si>
     <t>見積No.</t>
     <rPh sb="0" eb="2">
@@ -598,39 +598,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>エア・セーブMA型折りたたみ式引分250W</t>
-  </si>
-  <si>
-    <t>式</t>
-  </si>
-  <si>
-    <t>文化シヤッター株式会社</t>
-    <rPh sb="0" eb="2">
-      <t>ブンカ</t>
-    </rPh>
-    <rPh sb="7" eb="11">
-      <t>カブシキガイシャ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>式</t>
-    <rPh sb="0" eb="1">
-      <t>シキ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>梱包・運賃</t>
-    <rPh sb="0" eb="2">
-      <t>コンポウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ウンチン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>３か月間</t>
     <rPh sb="2" eb="4">
       <t>ゲツカン</t>
@@ -654,222 +621,12 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>UC-3708</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>北海道支店　設計施工管理部設計課</t>
-    <rPh sb="0" eb="5">
-      <t>ホッカイドウシテン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>青山</t>
-    <rPh sb="0" eb="2">
-      <t>アオヤマ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>平和通り倉庫様</t>
     <rPh sb="0" eb="3">
       <t>ヘイワドオ</t>
     </rPh>
     <rPh sb="4" eb="7">
       <t>ソウコサマ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>パピルス化成株式会社江別工場　改修</t>
-  </si>
-  <si>
-    <t>エア・セーブMB型固定式リブ付き2t×300巾×1/3ﾗｯﾌﾟ</t>
-  </si>
-  <si>
-    <t>静電防虫</t>
-  </si>
-  <si>
-    <t>W2800 × H3500</t>
-  </si>
-  <si>
-    <t>W3690 × H3500</t>
-  </si>
-  <si>
-    <t>カーテンレールD40[アルミ]4ｍ</t>
-  </si>
-  <si>
-    <t>取手付間仕切ポール【押えバー】両開3.5m</t>
-  </si>
-  <si>
-    <t>アルミ押えバー3.5ｍ</t>
-  </si>
-  <si>
-    <t>本</t>
-  </si>
-  <si>
-    <t>W2030 × H2500</t>
-  </si>
-  <si>
-    <t>W2955 × H2500</t>
-  </si>
-  <si>
-    <t>カーテンレールD40[アルミ]3ｍ</t>
-  </si>
-  <si>
-    <t>取手付間仕切ポール【押えバー】両開2.5m</t>
-  </si>
-  <si>
-    <t>アルミ押えバー2.5ｍ</t>
-  </si>
-  <si>
-    <t>BC-1C,BC-1D</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>BC-2A</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>BC-1A,BC-1B</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>BC-2</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>エア・セーブMC型スライド式リブ付き2t×200巾×100%ﾗｯﾌﾟ</t>
-  </si>
-  <si>
-    <t>カーテン寸法</t>
-    <rPh sb="4" eb="6">
-      <t>スンポウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>W4200 × H2840</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>W2100 × H2840</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>スライドレール</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ｍ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>引き紐（ﾌﾟﾗﾁｪｰﾝ2ｍ）+SUSシャックル</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒモ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>式</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>BC-3</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>エア・セーブMA型　MB型　MC型</t>
-    <rPh sb="8" eb="9">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ガタ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>路線便（時間指定不可）</t>
-    <rPh sb="0" eb="3">
-      <t>ロセンビン</t>
-    </rPh>
-    <rPh sb="4" eb="10">
-      <t>ジカンシテイフカ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>※　現場搬入（時間指定可）は別途40,000円申し受けます。</t>
-    <rPh sb="2" eb="6">
-      <t>ゲンバハンニュウ</t>
-    </rPh>
-    <rPh sb="7" eb="12">
-      <t>ジカンシテイカ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ベット</t>
-    </rPh>
-    <rPh sb="18" eb="23">
-      <t>000エン</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>モウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>BC-1C　BC-1D　BC-2A　BC-1A　BC-1B　BC-2　BC-3</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>エア・セーブMA型折りたたみ式</t>
-    <rPh sb="8" eb="9">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>シキ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>BC-2A　BC-2</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>エア・セーブMB型固定式</t>
-    <rPh sb="8" eb="9">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>コテイシキ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>BC-1C　BC-1D　BC-1A　BC-1B</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>エア・セーブMC型スライド式</t>
-    <rPh sb="8" eb="9">
-      <t>ガタ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>シキ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -2344,6 +2101,21 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="38" fontId="17" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2371,52 +2143,55 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="38" fontId="10" fillId="0" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="10" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="41" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="46" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="38" fontId="10" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="10" fillId="0" borderId="52" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="41" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="46" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="41" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="20" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="10" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2425,47 +2200,29 @@
     <xf numFmtId="38" fontId="10" fillId="0" borderId="52" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="46" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="41" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="38" fontId="10" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="10" fillId="0" borderId="34" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="32" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2792,8 +2549,8 @@
   </sheetPr>
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" showRuler="0" showOutlineSymbols="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showZeros="0" showRuler="0" showOutlineSymbols="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -2820,12 +2577,8 @@
       <c r="H1" s="122" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J1" s="6">
-        <v>2023</v>
-      </c>
+      <c r="I1" s="5"/>
+      <c r="J1" s="6"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="12" customHeight="1">
       <c r="F2" s="3"/>
@@ -2837,25 +2590,25 @@
       <c r="F3" s="3"/>
       <c r="G3" s="7"/>
       <c r="H3" s="123"/>
-      <c r="I3" s="183">
+      <c r="I3" s="174">
         <f ca="1">TODAY()</f>
-        <v>45903</v>
-      </c>
-      <c r="J3" s="183"/>
+        <v>45906</v>
+      </c>
+      <c r="J3" s="174"/>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A4" s="184" t="s">
+      <c r="A4" s="175" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="184"/>
-      <c r="C4" s="184"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="184"/>
-      <c r="I4" s="184"/>
-      <c r="J4" s="184"/>
+      <c r="B4" s="175"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="175"/>
+      <c r="J4" s="175"/>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="7.5" customHeight="1">
       <c r="A5" s="11"/>
@@ -2869,38 +2622,32 @@
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A6" s="185" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="185"/>
-      <c r="C6" s="185"/>
-      <c r="D6" s="185"/>
-      <c r="E6" s="185"/>
+      <c r="A6" s="176"/>
+      <c r="B6" s="176"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
+      <c r="E6" s="176"/>
       <c r="F6" s="12"/>
       <c r="G6" s="10"/>
       <c r="H6" s="125"/>
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" ht="22.5">
-      <c r="A7" s="186" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="186"/>
-      <c r="C7" s="186"/>
-      <c r="D7" s="186"/>
-      <c r="E7" s="186"/>
+      <c r="A7" s="177"/>
+      <c r="B7" s="177"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="177"/>
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
       <c r="H7" s="126"/>
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" ht="26" thickBot="1">
-      <c r="A8" s="187" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="187"/>
-      <c r="C8" s="187"/>
-      <c r="D8" s="187"/>
+      <c r="A8" s="178"/>
+      <c r="B8" s="178"/>
+      <c r="C8" s="178"/>
+      <c r="D8" s="178"/>
       <c r="E8" s="18" t="s">
         <v>44</v>
       </c>
@@ -2910,26 +2657,26 @@
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" ht="22.5">
-      <c r="A9" s="178" t="s">
+      <c r="A9" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="178"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="178"/>
-      <c r="E9" s="178"/>
+      <c r="B9" s="183"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
       <c r="F9" s="14"/>
       <c r="G9" s="15"/>
       <c r="H9" s="126"/>
       <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" ht="22.5">
-      <c r="A10" s="178" t="s">
+      <c r="A10" s="183" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="178"/>
-      <c r="C10" s="178"/>
-      <c r="D10" s="178"/>
-      <c r="E10" s="178"/>
+      <c r="B10" s="183"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183"/>
       <c r="F10" s="14"/>
       <c r="H10" s="127" t="s">
         <v>4</v>
@@ -2953,11 +2700,11 @@
         <v>6</v>
       </c>
       <c r="B12" s="22"/>
-      <c r="C12" s="179">
+      <c r="C12" s="184">
         <f>I45</f>
-        <v>546000</v>
-      </c>
-      <c r="D12" s="179"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="184"/>
       <c r="E12" s="23" t="s">
         <v>7</v>
       </c>
@@ -2978,10 +2725,10 @@
       <c r="A14" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="180">
+      <c r="B14" s="185">
         <v>45926</v>
       </c>
-      <c r="C14" s="180"/>
+      <c r="C14" s="185"/>
       <c r="D14" s="25"/>
       <c r="E14" s="26"/>
       <c r="F14" s="3"/>
@@ -2995,7 +2742,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
@@ -3012,7 +2759,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
@@ -3025,9 +2772,7 @@
       <c r="A17" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>56</v>
-      </c>
+      <c r="B17" s="27"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
       <c r="F17" s="3"/>
@@ -3043,7 +2788,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="27" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="25"/>
@@ -3053,7 +2798,7 @@
       <c r="I18" s="24"/>
       <c r="L18" s="2" t="str">
         <f>B17&amp;L17</f>
-        <v>パピルス化成株式会社江別工場　改修様向けお見積書</v>
+        <v>様向けお見積書</v>
       </c>
     </row>
     <row r="19" spans="1:13" s="2" customFormat="1" ht="18" thickBot="1">
@@ -3063,13 +2808,13 @@
       <c r="I19" s="31"/>
     </row>
     <row r="20" spans="1:13" s="7" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A20" s="181" t="s">
+      <c r="A20" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="182"/>
-      <c r="C20" s="182"/>
-      <c r="D20" s="182"/>
-      <c r="E20" s="182"/>
+      <c r="B20" s="187"/>
+      <c r="C20" s="187"/>
+      <c r="D20" s="187"/>
+      <c r="E20" s="187"/>
       <c r="F20" s="32" t="s">
         <v>19</v>
       </c>
@@ -3079,16 +2824,14 @@
       <c r="H20" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="174" t="s">
+      <c r="I20" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="175"/>
+      <c r="J20" s="180"/>
       <c r="L20" s="35"/>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A21" s="75" t="s">
-        <v>83</v>
-      </c>
+      <c r="A21" s="75"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
       <c r="D21" s="36"/>
@@ -3106,26 +2849,18 @@
       </c>
     </row>
     <row r="22" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A22" s="38" t="s">
-        <v>86</v>
-      </c>
+      <c r="A22" s="38"/>
       <c r="B22" s="39"/>
       <c r="C22" s="40"/>
       <c r="D22" s="74"/>
       <c r="E22" s="41"/>
-      <c r="F22" s="44">
-        <v>1</v>
-      </c>
-      <c r="G22" s="66" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" s="135">
-        <v>546000</v>
-      </c>
+      <c r="F22" s="44"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="135"/>
       <c r="I22" s="116"/>
       <c r="J22" s="117">
         <f>IFERROR(F22*H22,"")</f>
-        <v>546000</v>
+        <v>0</v>
       </c>
       <c r="M22" s="2" t="s">
         <v>30</v>
@@ -3150,14 +2885,10 @@
       </c>
     </row>
     <row r="24" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A24" s="38" t="s">
-        <v>87</v>
-      </c>
+      <c r="A24" s="38"/>
       <c r="B24" s="42"/>
       <c r="C24" s="41"/>
-      <c r="D24" s="41" t="s">
-        <v>88</v>
-      </c>
+      <c r="D24" s="41"/>
       <c r="E24" s="45"/>
       <c r="F24" s="44"/>
       <c r="G24" s="67"/>
@@ -3169,9 +2900,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A25" s="76" t="s">
-        <v>26</v>
-      </c>
+      <c r="A25" s="76"/>
       <c r="B25" s="42"/>
       <c r="C25" s="41"/>
       <c r="D25" s="41"/>
@@ -3189,9 +2918,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A26" s="38" t="s">
-        <v>27</v>
-      </c>
+      <c r="A26" s="38"/>
       <c r="B26" s="42"/>
       <c r="C26" s="41"/>
       <c r="D26" s="41"/>
@@ -3209,9 +2936,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A27" s="46" t="s">
-        <v>30</v>
-      </c>
+      <c r="A27" s="46"/>
       <c r="B27" s="42"/>
       <c r="C27" s="41"/>
       <c r="D27" s="41"/>
@@ -3229,9 +2954,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A28" s="46" t="s">
-        <v>38</v>
-      </c>
+      <c r="A28" s="46"/>
       <c r="B28" s="42"/>
       <c r="C28" s="41"/>
       <c r="D28" s="41"/>
@@ -3264,14 +2987,10 @@
       </c>
     </row>
     <row r="30" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A30" s="38" t="s">
-        <v>89</v>
-      </c>
+      <c r="A30" s="38"/>
       <c r="B30" s="42"/>
       <c r="C30" s="41"/>
-      <c r="D30" s="42" t="s">
-        <v>90</v>
-      </c>
+      <c r="D30" s="42"/>
       <c r="E30" s="45"/>
       <c r="F30" s="44"/>
       <c r="G30" s="66"/>
@@ -3286,9 +3005,7 @@
       </c>
     </row>
     <row r="31" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A31" s="38" t="s">
-        <v>25</v>
-      </c>
+      <c r="A31" s="38"/>
       <c r="B31" s="42"/>
       <c r="C31" s="41"/>
       <c r="D31" s="41"/>
@@ -3306,9 +3023,7 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A32" s="38" t="s">
-        <v>30</v>
-      </c>
+      <c r="A32" s="38"/>
       <c r="B32" s="42"/>
       <c r="C32" s="41"/>
       <c r="D32" s="41"/>
@@ -3326,9 +3041,7 @@
       </c>
     </row>
     <row r="33" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A33" s="38" t="s">
-        <v>38</v>
-      </c>
+      <c r="A33" s="38"/>
       <c r="B33" s="42"/>
       <c r="C33" s="41"/>
       <c r="D33" s="41"/>
@@ -3361,14 +3074,10 @@
       </c>
     </row>
     <row r="35" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A35" s="38" t="s">
-        <v>91</v>
-      </c>
+      <c r="A35" s="38"/>
       <c r="B35" s="42"/>
       <c r="C35" s="41"/>
-      <c r="D35" s="41" t="s">
-        <v>82</v>
-      </c>
+      <c r="D35" s="41"/>
       <c r="E35" s="45"/>
       <c r="F35" s="44"/>
       <c r="G35" s="66"/>
@@ -3383,9 +3092,7 @@
       </c>
     </row>
     <row r="36" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A36" s="38" t="s">
-        <v>25</v>
-      </c>
+      <c r="A36" s="38"/>
       <c r="B36" s="42"/>
       <c r="C36" s="41"/>
       <c r="D36" s="41"/>
@@ -3403,9 +3110,7 @@
       </c>
     </row>
     <row r="37" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A37" s="38" t="s">
-        <v>30</v>
-      </c>
+      <c r="A37" s="38"/>
       <c r="B37" s="42"/>
       <c r="C37" s="41"/>
       <c r="D37" s="42"/>
@@ -3421,9 +3126,7 @@
       <c r="M37" s="71"/>
     </row>
     <row r="38" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A38" s="38" t="s">
-        <v>38</v>
-      </c>
+      <c r="A38" s="38"/>
       <c r="B38" s="42"/>
       <c r="C38" s="41"/>
       <c r="D38" s="41"/>
@@ -3557,11 +3260,11 @@
       <c r="H45" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="I45" s="176">
+      <c r="I45" s="181">
         <f>SUM(I21:J44)</f>
-        <v>546000</v>
-      </c>
-      <c r="J45" s="177"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="182"/>
       <c r="M45" s="71" t="s">
         <v>38</v>
       </c>
@@ -3643,11 +3346,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:D8"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="A9:E9"/>
@@ -3655,10 +3353,15 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="A20:E20"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="78" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3669,8 +3372,8 @@
   </sheetPr>
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView showZeros="0" showRuler="0" showOutlineSymbols="0" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A29" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42"/>
+    <sheetView showZeros="0" tabSelected="1" showRuler="0" showOutlineSymbols="0" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A33" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -3695,13 +3398,13 @@
       <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="5" t="str">
+      <c r="I1" s="5">
         <f>見積書0!I1</f>
-        <v>UC-3708</v>
+        <v>0</v>
       </c>
       <c r="J1" s="6">
         <f>見積書0!J1</f>
-        <v>2023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="12" customHeight="1">
@@ -3714,25 +3417,25 @@
       <c r="F3" s="3"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="183">
+      <c r="I3" s="174">
         <f ca="1">見積書0!I3</f>
-        <v>45903</v>
-      </c>
-      <c r="J3" s="183"/>
+        <v>45906</v>
+      </c>
+      <c r="J3" s="174"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A4" s="184" t="s">
+      <c r="A4" s="175" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="184"/>
-      <c r="C4" s="184"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="184"/>
-      <c r="I4" s="184"/>
-      <c r="J4" s="184"/>
+      <c r="B4" s="175"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="175"/>
+      <c r="J4" s="175"/>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="7.5" customHeight="1">
       <c r="A5" s="11"/>
@@ -3746,41 +3449,41 @@
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A6" s="196" t="str">
+      <c r="A6" s="192">
         <f>見積書0!A6</f>
-        <v>文化シヤッター株式会社</v>
-      </c>
-      <c r="B6" s="196"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
+        <v>0</v>
+      </c>
+      <c r="B6" s="192"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
       <c r="F6" s="12"/>
       <c r="G6" s="10"/>
       <c r="H6" s="13"/>
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="22.5">
-      <c r="A7" s="197" t="str">
+      <c r="A7" s="193">
         <f>見積書0!A7</f>
-        <v>北海道支店　設計施工管理部設計課</v>
-      </c>
-      <c r="B7" s="197"/>
-      <c r="C7" s="197"/>
-      <c r="D7" s="197"/>
-      <c r="E7" s="197"/>
+        <v>0</v>
+      </c>
+      <c r="B7" s="193"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
       <c r="H7" s="16"/>
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="26" thickBot="1">
-      <c r="A8" s="198" t="str">
+      <c r="A8" s="194">
         <f>見積書0!A8</f>
-        <v>青山</v>
-      </c>
-      <c r="B8" s="198"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="198"/>
+        <v>0</v>
+      </c>
+      <c r="B8" s="194"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="194"/>
       <c r="E8" s="77" t="s">
         <v>44</v>
       </c>
@@ -3790,11 +3493,11 @@
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="22.5">
-      <c r="A9" s="178"/>
-      <c r="B9" s="178"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="178"/>
-      <c r="E9" s="178"/>
+      <c r="A9" s="183"/>
+      <c r="B9" s="183"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
       <c r="F9" s="14"/>
       <c r="H9" s="20" t="s">
         <v>4</v>
@@ -3802,9 +3505,9 @@
       <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="23" thickBot="1">
-      <c r="A10" s="111" t="str">
+      <c r="A10" s="111">
         <f>見積書0!B17</f>
-        <v>パピルス化成株式会社江別工場　改修</v>
+        <v>0</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -3817,13 +3520,13 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="7" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="181" t="s">
+      <c r="A11" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="182"/>
-      <c r="C11" s="182"/>
-      <c r="D11" s="182"/>
-      <c r="E11" s="182"/>
+      <c r="B11" s="187"/>
+      <c r="C11" s="187"/>
+      <c r="D11" s="187"/>
+      <c r="E11" s="187"/>
       <c r="F11" s="32" t="s">
         <v>19</v>
       </c>
@@ -3833,48 +3536,34 @@
       <c r="H11" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="174" t="s">
+      <c r="I11" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="175"/>
+      <c r="J11" s="180"/>
       <c r="L11" s="35"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A12" s="139" t="s">
-        <v>57</v>
-      </c>
+      <c r="A12" s="139"/>
       <c r="B12" s="140"/>
       <c r="C12" s="140"/>
       <c r="D12" s="140"/>
       <c r="E12" s="141"/>
-      <c r="F12" s="142" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="143" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="144" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="194" t="str">
+      <c r="F12" s="142"/>
+      <c r="G12" s="143"/>
+      <c r="H12" s="144"/>
+      <c r="I12" s="190">
         <f t="shared" ref="I12" si="0">IFERROR(F12*H12,"")</f>
-        <v/>
-      </c>
-      <c r="J12" s="195"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="191"/>
       <c r="M12" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A13" s="145" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="146">
-        <v>0</v>
-      </c>
-      <c r="C13" s="146">
-        <v>0</v>
-      </c>
+      <c r="A13" s="145"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="146"/>
       <c r="D13" s="146"/>
       <c r="E13" s="147"/>
       <c r="F13" s="148"/>
@@ -3887,27 +3576,17 @@
       <c r="J13" s="189"/>
     </row>
     <row r="14" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A14" s="145" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="146" t="s">
-        <v>59</v>
-      </c>
+      <c r="A14" s="145"/>
+      <c r="B14" s="146"/>
       <c r="C14" s="146"/>
       <c r="D14" s="146"/>
       <c r="E14" s="147"/>
-      <c r="F14" s="148">
-        <v>2</v>
-      </c>
-      <c r="G14" s="149" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="150">
-        <v>47600</v>
-      </c>
+      <c r="F14" s="148"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="150"/>
       <c r="I14" s="188">
         <f t="shared" si="1"/>
-        <v>95200</v>
+        <v>0</v>
       </c>
       <c r="J14" s="189"/>
     </row>
@@ -3916,21 +3595,13 @@
       <c r="B15" s="151"/>
       <c r="C15" s="146"/>
       <c r="D15" s="152"/>
-      <c r="E15" s="146">
-        <v>0</v>
-      </c>
-      <c r="F15" s="148" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="149" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="150" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="188" t="str">
+      <c r="E15" s="146"/>
+      <c r="F15" s="148"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="150"/>
+      <c r="I15" s="188">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J15" s="189"/>
       <c r="M15" s="2" t="s">
@@ -3938,27 +3609,17 @@
       </c>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A16" s="145" t="s">
-        <v>45</v>
-      </c>
+      <c r="A16" s="145"/>
       <c r="B16" s="153"/>
       <c r="C16" s="146"/>
       <c r="D16" s="153"/>
-      <c r="E16" s="154">
-        <v>0</v>
-      </c>
-      <c r="F16" s="148" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="155" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="156" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="188" t="str">
+      <c r="E16" s="154"/>
+      <c r="F16" s="148"/>
+      <c r="G16" s="155"/>
+      <c r="H16" s="156"/>
+      <c r="I16" s="188">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J16" s="189"/>
       <c r="K16" s="120"/>
@@ -3967,49 +3628,33 @@
       </c>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A17" s="145" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="153">
-        <v>0</v>
-      </c>
-      <c r="C17" s="146">
-        <v>0</v>
-      </c>
+      <c r="A17" s="145"/>
+      <c r="B17" s="153"/>
+      <c r="C17" s="146"/>
       <c r="D17" s="146"/>
       <c r="E17" s="147"/>
       <c r="F17" s="148"/>
       <c r="G17" s="155"/>
       <c r="H17" s="156"/>
-      <c r="I17" s="192">
+      <c r="I17" s="195">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J17" s="193"/>
+      <c r="J17" s="196"/>
       <c r="K17" s="120"/>
     </row>
     <row r="18" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A18" s="157" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="153" t="s">
-        <v>60</v>
-      </c>
+      <c r="A18" s="157"/>
+      <c r="B18" s="153"/>
       <c r="C18" s="146"/>
       <c r="D18" s="146"/>
       <c r="E18" s="147"/>
-      <c r="F18" s="148">
-        <v>1</v>
-      </c>
-      <c r="G18" s="155" t="s">
-        <v>46</v>
-      </c>
-      <c r="H18" s="156">
-        <v>77400</v>
-      </c>
+      <c r="F18" s="148"/>
+      <c r="G18" s="155"/>
+      <c r="H18" s="156"/>
       <c r="I18" s="188">
         <f t="shared" si="1"/>
-        <v>77400</v>
+        <v>0</v>
       </c>
       <c r="J18" s="189"/>
       <c r="M18" s="2" t="s">
@@ -4017,27 +3662,17 @@
       </c>
     </row>
     <row r="19" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A19" s="145" t="s">
-        <v>61</v>
-      </c>
+      <c r="A19" s="145"/>
       <c r="B19" s="153"/>
       <c r="C19" s="146"/>
       <c r="D19" s="146"/>
-      <c r="E19" s="147">
-        <v>0</v>
-      </c>
-      <c r="F19" s="148">
-        <v>1</v>
-      </c>
-      <c r="G19" s="155" t="s">
-        <v>46</v>
-      </c>
-      <c r="H19" s="156">
-        <v>16000</v>
-      </c>
+      <c r="E19" s="147"/>
+      <c r="F19" s="148"/>
+      <c r="G19" s="155"/>
+      <c r="H19" s="156"/>
       <c r="I19" s="188">
         <f t="shared" si="1"/>
-        <v>16000</v>
+        <v>0</v>
       </c>
       <c r="J19" s="189"/>
       <c r="K19" s="120"/>
@@ -4046,27 +3681,17 @@
       </c>
     </row>
     <row r="20" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A20" s="158" t="s">
-        <v>62</v>
-      </c>
+      <c r="A20" s="158"/>
       <c r="B20" s="153"/>
       <c r="C20" s="146"/>
       <c r="D20" s="146"/>
-      <c r="E20" s="147">
-        <v>0</v>
-      </c>
-      <c r="F20" s="148">
-        <v>1</v>
-      </c>
-      <c r="G20" s="155" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" s="156">
-        <v>35000</v>
-      </c>
+      <c r="E20" s="147"/>
+      <c r="F20" s="148"/>
+      <c r="G20" s="155"/>
+      <c r="H20" s="156"/>
       <c r="I20" s="188">
         <f t="shared" si="1"/>
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="J20" s="189"/>
       <c r="K20" s="120"/>
@@ -4075,27 +3700,17 @@
       </c>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A21" s="158" t="s">
-        <v>63</v>
-      </c>
+      <c r="A21" s="158"/>
       <c r="B21" s="153"/>
       <c r="C21" s="146"/>
       <c r="D21" s="146"/>
-      <c r="E21" s="159">
-        <v>0</v>
-      </c>
-      <c r="F21" s="148">
-        <v>2</v>
-      </c>
-      <c r="G21" s="155" t="s">
-        <v>64</v>
-      </c>
-      <c r="H21" s="156">
-        <v>2000</v>
-      </c>
+      <c r="E21" s="159"/>
+      <c r="F21" s="148"/>
+      <c r="G21" s="155"/>
+      <c r="H21" s="156"/>
       <c r="I21" s="188">
         <f t="shared" si="1"/>
-        <v>4000</v>
+        <v>0</v>
       </c>
       <c r="J21" s="189"/>
       <c r="M21" s="2" t="s">
@@ -4107,45 +3722,29 @@
       <c r="B22" s="153"/>
       <c r="C22" s="146"/>
       <c r="D22" s="146"/>
-      <c r="E22" s="159">
-        <v>0</v>
-      </c>
-      <c r="F22" s="148" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="155" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" s="156" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="188" t="str">
+      <c r="E22" s="159"/>
+      <c r="F22" s="148"/>
+      <c r="G22" s="155"/>
+      <c r="H22" s="156"/>
+      <c r="I22" s="188">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J22" s="189"/>
       <c r="K22" s="120"/>
     </row>
     <row r="23" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A23" s="145" t="s">
-        <v>57</v>
-      </c>
+      <c r="A23" s="145"/>
       <c r="B23" s="153"/>
       <c r="C23" s="146"/>
       <c r="D23" s="153"/>
       <c r="E23" s="147"/>
-      <c r="F23" s="148" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="149" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" s="150" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" s="188" t="str">
+      <c r="F23" s="148"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="150"/>
+      <c r="I23" s="188">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J23" s="189"/>
       <c r="M23" s="2" t="s">
@@ -4153,15 +3752,9 @@
       </c>
     </row>
     <row r="24" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A24" s="145" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="153">
-        <v>0</v>
-      </c>
-      <c r="C24" s="146">
-        <v>0</v>
-      </c>
+      <c r="A24" s="145"/>
+      <c r="B24" s="153"/>
+      <c r="C24" s="146"/>
       <c r="D24" s="146"/>
       <c r="E24" s="159"/>
       <c r="F24" s="148"/>
@@ -4178,27 +3771,17 @@
       </c>
     </row>
     <row r="25" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A25" s="145" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="153" t="s">
-        <v>65</v>
-      </c>
+      <c r="A25" s="145"/>
+      <c r="B25" s="153"/>
       <c r="C25" s="146"/>
       <c r="D25" s="146"/>
       <c r="E25" s="147"/>
-      <c r="F25" s="148">
-        <v>2</v>
-      </c>
-      <c r="G25" s="149" t="s">
-        <v>46</v>
-      </c>
-      <c r="H25" s="150">
-        <v>24700</v>
-      </c>
+      <c r="F25" s="148"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="150"/>
       <c r="I25" s="188">
         <f t="shared" ref="I25" si="2">IFERROR(F25*H25,"")</f>
-        <v>49400</v>
+        <v>0</v>
       </c>
       <c r="J25" s="189"/>
       <c r="K25" s="120"/>
@@ -4211,21 +3794,13 @@
       <c r="B26" s="153"/>
       <c r="C26" s="146"/>
       <c r="D26" s="146"/>
-      <c r="E26" s="147">
-        <v>0</v>
-      </c>
-      <c r="F26" s="148" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="149" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" s="156" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" s="188" t="str">
+      <c r="E26" s="147"/>
+      <c r="F26" s="148"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="188">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J26" s="189"/>
       <c r="K26" s="120"/>
@@ -4234,40 +3809,24 @@
       </c>
     </row>
     <row r="27" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A27" s="145" t="s">
-        <v>45</v>
-      </c>
+      <c r="A27" s="145"/>
       <c r="B27" s="153"/>
       <c r="C27" s="146"/>
       <c r="D27" s="146"/>
-      <c r="E27" s="147">
-        <v>0</v>
-      </c>
-      <c r="F27" s="148" t="s">
-        <v>34</v>
-      </c>
-      <c r="G27" s="149" t="s">
-        <v>34</v>
-      </c>
-      <c r="H27" s="156" t="s">
-        <v>34</v>
-      </c>
-      <c r="I27" s="188" t="str">
+      <c r="E27" s="147"/>
+      <c r="F27" s="148"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="156"/>
+      <c r="I27" s="188">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J27" s="189"/>
     </row>
     <row r="28" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A28" s="145" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="153">
-        <v>0</v>
-      </c>
-      <c r="C28" s="146">
-        <v>0</v>
-      </c>
+      <c r="A28" s="145"/>
+      <c r="B28" s="153"/>
+      <c r="C28" s="146"/>
       <c r="D28" s="146"/>
       <c r="E28" s="147"/>
       <c r="F28" s="148"/>
@@ -4284,27 +3843,17 @@
       </c>
     </row>
     <row r="29" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A29" s="145" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" s="153" t="s">
-        <v>66</v>
-      </c>
+      <c r="A29" s="145"/>
+      <c r="B29" s="153"/>
       <c r="C29" s="146"/>
       <c r="D29" s="146"/>
       <c r="E29" s="147"/>
-      <c r="F29" s="148">
-        <v>1</v>
-      </c>
-      <c r="G29" s="149" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29" s="150">
-        <v>44200</v>
-      </c>
+      <c r="F29" s="148"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="150"/>
       <c r="I29" s="188">
         <f t="shared" si="1"/>
-        <v>44200</v>
+        <v>0</v>
       </c>
       <c r="J29" s="189"/>
       <c r="M29" s="71" t="s">
@@ -4312,54 +3861,34 @@
       </c>
     </row>
     <row r="30" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A30" s="145" t="s">
-        <v>67</v>
-      </c>
+      <c r="A30" s="145"/>
       <c r="B30" s="153"/>
       <c r="C30" s="146"/>
       <c r="D30" s="153"/>
-      <c r="E30" s="147">
-        <v>0</v>
-      </c>
-      <c r="F30" s="148">
-        <v>1</v>
-      </c>
-      <c r="G30" s="149" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" s="150">
-        <v>12000</v>
-      </c>
+      <c r="E30" s="147"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="150"/>
       <c r="I30" s="188">
         <f t="shared" si="1"/>
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="J30" s="189"/>
       <c r="K30" s="120"/>
       <c r="M30" s="71"/>
     </row>
     <row r="31" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A31" s="145" t="s">
-        <v>68</v>
-      </c>
+      <c r="A31" s="145"/>
       <c r="B31" s="153"/>
       <c r="C31" s="146"/>
       <c r="D31" s="146"/>
-      <c r="E31" s="147">
-        <v>0</v>
-      </c>
-      <c r="F31" s="148">
-        <v>1</v>
-      </c>
-      <c r="G31" s="149" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="150">
-        <v>35000</v>
-      </c>
+      <c r="E31" s="147"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="150"/>
       <c r="I31" s="188">
         <f t="shared" si="1"/>
-        <v>35000</v>
+        <v>0</v>
       </c>
       <c r="J31" s="189"/>
       <c r="M31" s="71" t="s">
@@ -4367,27 +3896,17 @@
       </c>
     </row>
     <row r="32" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A32" s="145" t="s">
-        <v>69</v>
-      </c>
+      <c r="A32" s="145"/>
       <c r="B32" s="153"/>
       <c r="C32" s="146"/>
       <c r="D32" s="146"/>
-      <c r="E32" s="147">
-        <v>0</v>
-      </c>
-      <c r="F32" s="148">
-        <v>2</v>
-      </c>
-      <c r="G32" s="149" t="s">
-        <v>64</v>
-      </c>
-      <c r="H32" s="150">
-        <v>1400</v>
-      </c>
+      <c r="E32" s="147"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="150"/>
       <c r="I32" s="188">
         <f t="shared" si="1"/>
-        <v>2800</v>
+        <v>0</v>
       </c>
       <c r="J32" s="189"/>
       <c r="M32" s="71" t="s">
@@ -4414,25 +3933,17 @@
       </c>
     </row>
     <row r="34" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A34" s="145" t="s">
-        <v>74</v>
-      </c>
+      <c r="A34" s="145"/>
       <c r="B34" s="153"/>
       <c r="C34" s="146"/>
       <c r="D34" s="146"/>
       <c r="E34" s="147"/>
-      <c r="F34" s="148" t="s">
-        <v>34</v>
-      </c>
-      <c r="G34" s="149" t="s">
-        <v>34</v>
-      </c>
-      <c r="H34" s="150" t="s">
-        <v>34</v>
-      </c>
-      <c r="I34" s="188" t="str">
+      <c r="F34" s="148"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="150"/>
+      <c r="I34" s="188">
         <f t="shared" si="1"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J34" s="189"/>
       <c r="M34" s="71" t="s">
@@ -4440,15 +3951,9 @@
       </c>
     </row>
     <row r="35" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A35" s="145" t="s">
-        <v>58</v>
-      </c>
-      <c r="B35" s="153">
-        <v>0</v>
-      </c>
-      <c r="C35" s="146">
-        <v>0</v>
-      </c>
+      <c r="A35" s="145"/>
+      <c r="B35" s="153"/>
+      <c r="C35" s="146"/>
       <c r="D35" s="146"/>
       <c r="E35" s="147"/>
       <c r="F35" s="148"/>
@@ -4463,12 +3968,8 @@
       <c r="M35" s="71"/>
     </row>
     <row r="36" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A36" s="160" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" s="161" t="s">
-        <v>76</v>
-      </c>
+      <c r="A36" s="160"/>
+      <c r="B36" s="161"/>
       <c r="C36" s="162"/>
       <c r="D36" s="162"/>
       <c r="E36" s="147"/>
@@ -4485,27 +3986,17 @@
       </c>
     </row>
     <row r="37" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A37" s="160" t="s">
-        <v>75</v>
-      </c>
+      <c r="A37" s="160"/>
       <c r="B37" s="161"/>
-      <c r="C37" s="162" t="s">
-        <v>77</v>
-      </c>
+      <c r="C37" s="162"/>
       <c r="D37" s="162"/>
       <c r="E37" s="147"/>
-      <c r="F37" s="148">
-        <v>2</v>
-      </c>
-      <c r="G37" s="149" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" s="156">
-        <v>46900</v>
-      </c>
+      <c r="F37" s="148"/>
+      <c r="G37" s="149"/>
+      <c r="H37" s="156"/>
       <c r="I37" s="188">
         <f t="shared" si="1"/>
-        <v>93800</v>
+        <v>0</v>
       </c>
       <c r="J37" s="189"/>
       <c r="M37" s="71" t="s">
@@ -4513,50 +4004,34 @@
       </c>
     </row>
     <row r="38" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A38" s="160" t="s">
-        <v>78</v>
-      </c>
+      <c r="A38" s="160"/>
       <c r="B38" s="161"/>
       <c r="C38" s="162"/>
       <c r="D38" s="162"/>
       <c r="E38" s="147"/>
-      <c r="F38" s="148">
-        <v>6</v>
-      </c>
-      <c r="G38" s="149" t="s">
-        <v>79</v>
-      </c>
-      <c r="H38" s="156">
-        <v>7400</v>
-      </c>
+      <c r="F38" s="148"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="156"/>
       <c r="I38" s="188">
         <f t="shared" si="1"/>
-        <v>44400</v>
+        <v>0</v>
       </c>
       <c r="J38" s="189"/>
       <c r="K38" s="120"/>
       <c r="M38" s="71"/>
     </row>
     <row r="39" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A39" s="160" t="s">
-        <v>80</v>
-      </c>
+      <c r="A39" s="160"/>
       <c r="B39" s="161"/>
       <c r="C39" s="162"/>
       <c r="D39" s="162"/>
       <c r="E39" s="147"/>
-      <c r="F39" s="148">
-        <v>8</v>
-      </c>
-      <c r="G39" s="149" t="s">
-        <v>81</v>
-      </c>
-      <c r="H39" s="156">
-        <v>2100</v>
-      </c>
+      <c r="F39" s="148"/>
+      <c r="G39" s="149"/>
+      <c r="H39" s="156"/>
       <c r="I39" s="188">
         <f t="shared" ref="I39" si="3">IFERROR(F39*H39,"")</f>
-        <v>16800</v>
+        <v>0</v>
       </c>
       <c r="J39" s="189"/>
       <c r="K39" s="120"/>
@@ -4583,27 +4058,17 @@
       </c>
     </row>
     <row r="41" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A41" s="160" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" s="161" t="s">
-        <v>84</v>
-      </c>
+      <c r="A41" s="160"/>
+      <c r="B41" s="161"/>
       <c r="C41" s="162"/>
       <c r="D41" s="162"/>
       <c r="E41" s="147"/>
-      <c r="F41" s="148">
-        <v>1</v>
-      </c>
-      <c r="G41" s="149" t="s">
-        <v>48</v>
-      </c>
-      <c r="H41" s="156">
-        <v>20000</v>
-      </c>
+      <c r="F41" s="148"/>
+      <c r="G41" s="149"/>
+      <c r="H41" s="156"/>
       <c r="I41" s="188">
         <f t="shared" si="1"/>
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J41" s="189"/>
       <c r="K41" s="120"/>
@@ -4611,9 +4076,7 @@
     </row>
     <row r="42" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A42" s="160"/>
-      <c r="B42" s="161" t="s">
-        <v>85</v>
-      </c>
+      <c r="B42" s="161"/>
       <c r="C42" s="162"/>
       <c r="D42" s="162"/>
       <c r="E42" s="147"/>
@@ -4672,11 +4135,11 @@
       <c r="F45" s="167"/>
       <c r="G45" s="168"/>
       <c r="H45" s="169"/>
-      <c r="I45" s="190">
+      <c r="I45" s="197">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J45" s="191"/>
+      <c r="J45" s="198"/>
       <c r="K45" s="120"/>
     </row>
     <row r="46" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1" thickBot="1">
@@ -4688,14 +4151,14 @@
       <c r="F46" s="56"/>
       <c r="G46" s="57"/>
       <c r="H46" s="34"/>
-      <c r="I46" s="176">
+      <c r="I46" s="181">
         <f>SUM(I12:J45)</f>
-        <v>546000</v>
-      </c>
-      <c r="J46" s="177"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="182"/>
       <c r="K46" s="120">
         <f>SUM(I14:J42)</f>
-        <v>546000</v>
+        <v>0</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>37</v>
@@ -4784,17 +4247,26 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
@@ -4807,26 +4279,17 @@
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4867,13 +4330,13 @@
       <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="5" t="str">
+      <c r="I1" s="5">
         <f>見積書0!I1</f>
-        <v>UC-3708</v>
+        <v>0</v>
       </c>
       <c r="J1" s="6">
         <f>見積書0!J1</f>
-        <v>2023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="12" customHeight="1">
@@ -4886,25 +4349,25 @@
       <c r="F3" s="3"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="183">
+      <c r="I3" s="174">
         <f ca="1">見積書0!I3</f>
-        <v>45903</v>
-      </c>
-      <c r="J3" s="183"/>
+        <v>45906</v>
+      </c>
+      <c r="J3" s="174"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A4" s="184" t="s">
+      <c r="A4" s="175" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="184"/>
-      <c r="C4" s="184"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="184"/>
-      <c r="I4" s="184"/>
-      <c r="J4" s="184"/>
+      <c r="B4" s="175"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="175"/>
+      <c r="J4" s="175"/>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="7.5" customHeight="1">
       <c r="A5" s="11"/>
@@ -4918,41 +4381,41 @@
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A6" s="196" t="str">
+      <c r="A6" s="192">
         <f>見積書0!A6</f>
-        <v>文化シヤッター株式会社</v>
-      </c>
-      <c r="B6" s="196"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
+        <v>0</v>
+      </c>
+      <c r="B6" s="192"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
       <c r="F6" s="12"/>
       <c r="G6" s="10"/>
       <c r="H6" s="13"/>
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="22.5">
-      <c r="A7" s="197" t="str">
+      <c r="A7" s="193">
         <f>見積書0!A7</f>
-        <v>北海道支店　設計施工管理部設計課</v>
-      </c>
-      <c r="B7" s="197"/>
-      <c r="C7" s="197"/>
-      <c r="D7" s="197"/>
-      <c r="E7" s="197"/>
+        <v>0</v>
+      </c>
+      <c r="B7" s="193"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
       <c r="H7" s="16"/>
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="26" thickBot="1">
-      <c r="A8" s="198" t="str">
+      <c r="A8" s="194">
         <f>見積書0!A8</f>
-        <v>青山</v>
-      </c>
-      <c r="B8" s="198"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="198"/>
+        <v>0</v>
+      </c>
+      <c r="B8" s="194"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="194"/>
       <c r="E8" s="77" t="s">
         <v>44</v>
       </c>
@@ -4962,11 +4425,11 @@
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="22.5">
-      <c r="A9" s="178"/>
-      <c r="B9" s="178"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="178"/>
-      <c r="E9" s="178"/>
+      <c r="A9" s="183"/>
+      <c r="B9" s="183"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
       <c r="F9" s="14"/>
       <c r="H9" s="20" t="s">
         <v>4</v>
@@ -4974,9 +4437,9 @@
       <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="23" thickBot="1">
-      <c r="A10" s="111" t="str">
+      <c r="A10" s="111">
         <f>見積書0!B17</f>
-        <v>パピルス化成株式会社江別工場　改修</v>
+        <v>0</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -4989,13 +4452,13 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="7" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="181" t="s">
+      <c r="A11" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="182"/>
-      <c r="C11" s="182"/>
-      <c r="D11" s="182"/>
-      <c r="E11" s="182"/>
+      <c r="B11" s="187"/>
+      <c r="C11" s="187"/>
+      <c r="D11" s="187"/>
+      <c r="E11" s="187"/>
       <c r="F11" s="32" t="s">
         <v>19</v>
       </c>
@@ -5005,10 +4468,10 @@
       <c r="H11" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="174" t="s">
+      <c r="I11" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="175"/>
+      <c r="J11" s="180"/>
       <c r="L11" s="35"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
@@ -5020,11 +4483,11 @@
       <c r="F12" s="142"/>
       <c r="G12" s="143"/>
       <c r="H12" s="144"/>
-      <c r="I12" s="205">
+      <c r="I12" s="201">
         <f>IFERROR(F12*H12,"")</f>
         <v>0</v>
       </c>
-      <c r="J12" s="206"/>
+      <c r="J12" s="202"/>
       <c r="M12" s="2" t="s">
         <v>25</v>
       </c>
@@ -5038,11 +4501,11 @@
       <c r="F13" s="148"/>
       <c r="G13" s="149"/>
       <c r="H13" s="150"/>
-      <c r="I13" s="201">
+      <c r="I13" s="199">
         <f t="shared" ref="I13:I44" si="0">IFERROR(F13*H13,"")</f>
         <v>0</v>
       </c>
-      <c r="J13" s="202"/>
+      <c r="J13" s="200"/>
       <c r="M13" s="2" t="s">
         <v>25</v>
       </c>
@@ -5056,11 +4519,11 @@
       <c r="F14" s="148"/>
       <c r="G14" s="149"/>
       <c r="H14" s="150"/>
-      <c r="I14" s="201">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="202"/>
+      <c r="I14" s="199">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="200"/>
       <c r="M14" s="2" t="s">
         <v>30</v>
       </c>
@@ -5074,11 +4537,11 @@
       <c r="F15" s="148"/>
       <c r="G15" s="155"/>
       <c r="H15" s="156"/>
-      <c r="I15" s="201">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="202"/>
+      <c r="I15" s="199">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="200"/>
       <c r="M15" s="2" t="s">
         <v>38</v>
       </c>
@@ -5107,11 +4570,11 @@
       <c r="F17" s="148"/>
       <c r="G17" s="155"/>
       <c r="H17" s="156"/>
-      <c r="I17" s="201">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="202"/>
+      <c r="I17" s="199">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="200"/>
       <c r="M17" s="2" t="s">
         <v>26</v>
       </c>
@@ -5125,11 +4588,11 @@
       <c r="F18" s="148"/>
       <c r="G18" s="155"/>
       <c r="H18" s="156"/>
-      <c r="I18" s="201">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="202"/>
+      <c r="I18" s="199">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="200"/>
       <c r="K18" s="121"/>
       <c r="M18" s="2" t="s">
         <v>27</v>
@@ -5144,11 +4607,11 @@
       <c r="F19" s="148"/>
       <c r="G19" s="155"/>
       <c r="H19" s="156"/>
-      <c r="I19" s="201">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="202"/>
+      <c r="I19" s="199">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="200"/>
       <c r="K19" s="121"/>
       <c r="M19" s="2" t="s">
         <v>30</v>
@@ -5163,11 +4626,11 @@
       <c r="F20" s="148"/>
       <c r="G20" s="155"/>
       <c r="H20" s="156"/>
-      <c r="I20" s="201">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="202"/>
+      <c r="I20" s="199">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="200"/>
       <c r="M20" s="2" t="s">
         <v>38</v>
       </c>
@@ -5181,11 +4644,11 @@
       <c r="F21" s="148"/>
       <c r="G21" s="155"/>
       <c r="H21" s="156"/>
-      <c r="I21" s="201">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="202"/>
+      <c r="I21" s="199">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="200"/>
     </row>
     <row r="22" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A22" s="145"/>
@@ -5196,11 +4659,11 @@
       <c r="F22" s="148"/>
       <c r="G22" s="149"/>
       <c r="H22" s="150"/>
-      <c r="I22" s="201">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="202"/>
+      <c r="I22" s="199">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="200"/>
       <c r="M22" s="2" t="s">
         <v>26</v>
       </c>
@@ -5214,11 +4677,11 @@
       <c r="F23" s="148"/>
       <c r="G23" s="149"/>
       <c r="H23" s="156"/>
-      <c r="I23" s="201">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="202"/>
+      <c r="I23" s="199">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="200"/>
       <c r="M23" s="2" t="s">
         <v>29</v>
       </c>
@@ -5232,11 +4695,11 @@
       <c r="F24" s="148"/>
       <c r="G24" s="149"/>
       <c r="H24" s="150"/>
-      <c r="I24" s="201">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="202"/>
+      <c r="I24" s="199">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="200"/>
       <c r="M24" s="2" t="s">
         <v>30</v>
       </c>
@@ -5250,11 +4713,11 @@
       <c r="F25" s="148"/>
       <c r="G25" s="149"/>
       <c r="H25" s="156"/>
-      <c r="I25" s="201">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="202"/>
+      <c r="I25" s="199">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="200"/>
       <c r="M25" s="2" t="s">
         <v>38</v>
       </c>
@@ -5268,11 +4731,11 @@
       <c r="F26" s="148"/>
       <c r="G26" s="149"/>
       <c r="H26" s="156"/>
-      <c r="I26" s="201">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="202"/>
+      <c r="I26" s="199">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="200"/>
     </row>
     <row r="27" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A27" s="145"/>
@@ -5283,11 +4746,11 @@
       <c r="F27" s="148"/>
       <c r="G27" s="149"/>
       <c r="H27" s="150"/>
-      <c r="I27" s="201">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="202"/>
+      <c r="I27" s="199">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="200"/>
       <c r="M27" s="2" t="s">
         <v>28</v>
       </c>
@@ -5301,11 +4764,11 @@
       <c r="F28" s="148"/>
       <c r="G28" s="149"/>
       <c r="H28" s="150"/>
-      <c r="I28" s="201">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="202"/>
+      <c r="I28" s="199">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="200"/>
       <c r="M28" s="71" t="s">
         <v>31</v>
       </c>
@@ -5319,11 +4782,11 @@
       <c r="F29" s="148"/>
       <c r="G29" s="149"/>
       <c r="H29" s="150"/>
-      <c r="I29" s="201">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="202"/>
+      <c r="I29" s="199">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="200"/>
       <c r="M29" s="71"/>
     </row>
     <row r="30" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
@@ -5335,11 +4798,11 @@
       <c r="F30" s="148"/>
       <c r="G30" s="149"/>
       <c r="H30" s="150"/>
-      <c r="I30" s="201">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="202"/>
+      <c r="I30" s="199">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="200"/>
       <c r="M30" s="71" t="s">
         <v>32</v>
       </c>
@@ -5353,11 +4816,11 @@
       <c r="F31" s="148"/>
       <c r="G31" s="149"/>
       <c r="H31" s="150"/>
-      <c r="I31" s="201">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="202"/>
+      <c r="I31" s="199">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="200"/>
       <c r="M31" s="71" t="s">
         <v>39</v>
       </c>
@@ -5371,11 +4834,11 @@
       <c r="F32" s="148"/>
       <c r="G32" s="149"/>
       <c r="H32" s="150"/>
-      <c r="I32" s="201">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="202"/>
+      <c r="I32" s="199">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="200"/>
       <c r="M32" s="71" t="s">
         <v>40</v>
       </c>
@@ -5389,11 +4852,11 @@
       <c r="F33" s="148"/>
       <c r="G33" s="149"/>
       <c r="H33" s="150"/>
-      <c r="I33" s="201">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="202"/>
+      <c r="I33" s="199">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="200"/>
       <c r="M33" s="71" t="s">
         <v>41</v>
       </c>
@@ -5407,11 +4870,11 @@
       <c r="F34" s="148"/>
       <c r="G34" s="149"/>
       <c r="H34" s="156"/>
-      <c r="I34" s="201">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="202"/>
+      <c r="I34" s="199">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="200"/>
       <c r="M34" s="71"/>
     </row>
     <row r="35" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
@@ -5423,11 +4886,11 @@
       <c r="F35" s="148"/>
       <c r="G35" s="149"/>
       <c r="H35" s="156"/>
-      <c r="I35" s="201">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="202"/>
+      <c r="I35" s="199">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="200"/>
       <c r="M35" s="71"/>
     </row>
     <row r="36" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
@@ -5439,11 +4902,11 @@
       <c r="F36" s="148"/>
       <c r="G36" s="149"/>
       <c r="H36" s="156"/>
-      <c r="I36" s="201">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="202"/>
+      <c r="I36" s="199">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="200"/>
       <c r="M36" s="71"/>
     </row>
     <row r="37" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
@@ -5455,11 +4918,11 @@
       <c r="F37" s="148"/>
       <c r="G37" s="149"/>
       <c r="H37" s="156"/>
-      <c r="I37" s="201">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="202"/>
+      <c r="I37" s="199">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="200"/>
       <c r="M37" s="71"/>
     </row>
     <row r="38" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
@@ -5471,11 +4934,11 @@
       <c r="F38" s="148"/>
       <c r="G38" s="149"/>
       <c r="H38" s="156"/>
-      <c r="I38" s="201">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="202"/>
+      <c r="I38" s="199">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="200"/>
       <c r="M38" s="71"/>
     </row>
     <row r="39" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
@@ -5487,11 +4950,11 @@
       <c r="F39" s="148"/>
       <c r="G39" s="149"/>
       <c r="H39" s="156"/>
-      <c r="I39" s="201">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="202"/>
+      <c r="I39" s="199">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="200"/>
       <c r="M39" s="71"/>
     </row>
     <row r="40" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
@@ -5503,11 +4966,11 @@
       <c r="F40" s="148"/>
       <c r="G40" s="149"/>
       <c r="H40" s="156"/>
-      <c r="I40" s="201">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="202"/>
+      <c r="I40" s="199">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="200"/>
       <c r="M40" s="71"/>
     </row>
     <row r="41" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
@@ -5519,11 +4982,11 @@
       <c r="F41" s="148"/>
       <c r="G41" s="149"/>
       <c r="H41" s="156"/>
-      <c r="I41" s="201">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="202"/>
+      <c r="I41" s="199">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="200"/>
       <c r="M41" s="71"/>
     </row>
     <row r="42" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
@@ -5535,11 +4998,11 @@
       <c r="F42" s="148"/>
       <c r="G42" s="149"/>
       <c r="H42" s="156"/>
-      <c r="I42" s="201">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="202"/>
+      <c r="I42" s="199">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="200"/>
       <c r="M42" s="71"/>
     </row>
     <row r="43" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
@@ -5551,11 +5014,11 @@
       <c r="F43" s="148"/>
       <c r="G43" s="149"/>
       <c r="H43" s="156"/>
-      <c r="I43" s="201">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="202"/>
+      <c r="I43" s="199">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="200"/>
       <c r="M43" s="71" t="s">
         <v>26</v>
       </c>
@@ -5569,11 +5032,11 @@
       <c r="F44" s="167"/>
       <c r="G44" s="168"/>
       <c r="H44" s="169"/>
-      <c r="I44" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="200"/>
+      <c r="I44" s="205">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="206"/>
       <c r="M44" s="71" t="s">
         <v>29</v>
       </c>
@@ -5589,8 +5052,8 @@
       <c r="H45" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I45" s="176"/>
-      <c r="J45" s="177"/>
+      <c r="I45" s="181"/>
+      <c r="J45" s="182"/>
       <c r="M45" s="71" t="s">
         <v>38</v>
       </c>
@@ -5672,32 +5135,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="I44:J44"/>
     <mergeCell ref="I26:J26"/>
@@ -5714,6 +5151,32 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5754,13 +5217,13 @@
       <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="5" t="str">
+      <c r="I1" s="5">
         <f>見積書0!I1</f>
-        <v>UC-3708</v>
+        <v>0</v>
       </c>
       <c r="J1" s="6">
         <f>見積書0!J1</f>
-        <v>2023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="12" customHeight="1">
@@ -5773,25 +5236,25 @@
       <c r="F3" s="3"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="183">
+      <c r="I3" s="174">
         <f ca="1">見積書0!I3</f>
-        <v>45903</v>
-      </c>
-      <c r="J3" s="183"/>
+        <v>45906</v>
+      </c>
+      <c r="J3" s="174"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A4" s="184" t="s">
+      <c r="A4" s="175" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="184"/>
-      <c r="C4" s="184"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="184"/>
-      <c r="I4" s="184"/>
-      <c r="J4" s="184"/>
+      <c r="B4" s="175"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="175"/>
+      <c r="J4" s="175"/>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="7.5" customHeight="1">
       <c r="A5" s="11"/>
@@ -5805,41 +5268,41 @@
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A6" s="196" t="str">
+      <c r="A6" s="192">
         <f>見積書0!A6</f>
-        <v>文化シヤッター株式会社</v>
-      </c>
-      <c r="B6" s="196"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
+        <v>0</v>
+      </c>
+      <c r="B6" s="192"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
       <c r="F6" s="12"/>
       <c r="G6" s="10"/>
       <c r="H6" s="13"/>
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="22.5">
-      <c r="A7" s="197" t="str">
+      <c r="A7" s="193">
         <f>見積書0!A7</f>
-        <v>北海道支店　設計施工管理部設計課</v>
-      </c>
-      <c r="B7" s="197"/>
-      <c r="C7" s="197"/>
-      <c r="D7" s="197"/>
-      <c r="E7" s="197"/>
+        <v>0</v>
+      </c>
+      <c r="B7" s="193"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
       <c r="H7" s="16"/>
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="26" thickBot="1">
-      <c r="A8" s="198" t="str">
+      <c r="A8" s="194">
         <f>見積書0!A8</f>
-        <v>青山</v>
-      </c>
-      <c r="B8" s="198"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="198"/>
+        <v>0</v>
+      </c>
+      <c r="B8" s="194"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="194"/>
       <c r="E8" s="77" t="s">
         <v>44</v>
       </c>
@@ -5849,11 +5312,11 @@
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="22.5">
-      <c r="A9" s="178"/>
-      <c r="B9" s="178"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="178"/>
-      <c r="E9" s="178"/>
+      <c r="A9" s="183"/>
+      <c r="B9" s="183"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
       <c r="F9" s="14"/>
       <c r="H9" s="20" t="s">
         <v>4</v>
@@ -5861,9 +5324,9 @@
       <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="23" thickBot="1">
-      <c r="A10" s="111" t="str">
+      <c r="A10" s="111">
         <f>見積書0!B17</f>
-        <v>パピルス化成株式会社江別工場　改修</v>
+        <v>0</v>
       </c>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -5876,13 +5339,13 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="7" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="181" t="s">
+      <c r="A11" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="182"/>
-      <c r="C11" s="182"/>
-      <c r="D11" s="182"/>
-      <c r="E11" s="182"/>
+      <c r="B11" s="187"/>
+      <c r="C11" s="187"/>
+      <c r="D11" s="187"/>
+      <c r="E11" s="187"/>
       <c r="F11" s="32" t="s">
         <v>19</v>
       </c>
@@ -5892,10 +5355,10 @@
       <c r="H11" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="174" t="s">
+      <c r="I11" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="175"/>
+      <c r="J11" s="180"/>
       <c r="L11" s="35"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
@@ -5907,11 +5370,11 @@
       <c r="F12" s="82"/>
       <c r="G12" s="83"/>
       <c r="H12" s="84"/>
-      <c r="I12" s="211">
+      <c r="I12" s="209">
         <f t="shared" ref="I12" si="0">IFERROR(F12*H12,"")</f>
         <v>0</v>
       </c>
-      <c r="J12" s="212"/>
+      <c r="J12" s="210"/>
       <c r="M12" s="2" t="s">
         <v>25</v>
       </c>
@@ -5943,11 +5406,11 @@
       <c r="F14" s="90"/>
       <c r="G14" s="95"/>
       <c r="H14" s="96"/>
-      <c r="I14" s="209">
+      <c r="I14" s="213">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="210"/>
+      <c r="J14" s="214"/>
       <c r="M14" s="2" t="s">
         <v>38</v>
       </c>
@@ -5961,11 +5424,11 @@
       <c r="F15" s="90"/>
       <c r="G15" s="95"/>
       <c r="H15" s="96"/>
-      <c r="I15" s="213">
+      <c r="I15" s="211">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J15" s="214"/>
+      <c r="J15" s="212"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A16" s="85"/>
@@ -5976,11 +5439,11 @@
       <c r="F16" s="90"/>
       <c r="G16" s="95"/>
       <c r="H16" s="96"/>
-      <c r="I16" s="209">
+      <c r="I16" s="213">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J16" s="210"/>
+      <c r="J16" s="214"/>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A17" s="98"/>
@@ -6471,11 +5934,11 @@
       <c r="H45" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I45" s="176">
+      <c r="I45" s="181">
         <f>SUM(I12:J44)</f>
         <v>0</v>
       </c>
-      <c r="J45" s="177"/>
+      <c r="J45" s="182"/>
       <c r="M45" s="71" t="s">
         <v>38</v>
       </c>
@@ -6579,32 +6042,6 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
@@ -6621,6 +6058,32 @@
     <mergeCell ref="I38:J38"/>
     <mergeCell ref="I37:J37"/>
     <mergeCell ref="I36:J36"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I15:J15"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -6661,13 +6124,13 @@
       <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="5" t="str">
+      <c r="I1" s="5">
         <f>見積書0!I1</f>
-        <v>UC-3708</v>
+        <v>0</v>
       </c>
       <c r="J1" s="6">
         <f>見積書0!J1</f>
-        <v>2023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="12" customHeight="1">
@@ -6680,25 +6143,25 @@
       <c r="F3" s="3"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="183">
+      <c r="I3" s="174">
         <f ca="1">見積書0!I3</f>
-        <v>45903</v>
-      </c>
-      <c r="J3" s="183"/>
+        <v>45906</v>
+      </c>
+      <c r="J3" s="174"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A4" s="184" t="s">
+      <c r="A4" s="175" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="184"/>
-      <c r="C4" s="184"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="184"/>
-      <c r="I4" s="184"/>
-      <c r="J4" s="184"/>
+      <c r="B4" s="175"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="175"/>
+      <c r="J4" s="175"/>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="7.5" customHeight="1">
       <c r="A5" s="11"/>
@@ -6712,41 +6175,41 @@
       <c r="I5" s="171"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A6" s="196" t="str">
+      <c r="A6" s="192">
         <f>見積書0!A6</f>
-        <v>文化シヤッター株式会社</v>
-      </c>
-      <c r="B6" s="196"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
+        <v>0</v>
+      </c>
+      <c r="B6" s="192"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
       <c r="F6" s="12"/>
       <c r="G6" s="171"/>
       <c r="H6" s="13"/>
       <c r="I6" s="171"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="22.5">
-      <c r="A7" s="197" t="str">
+      <c r="A7" s="193">
         <f>見積書0!A7</f>
-        <v>北海道支店　設計施工管理部設計課</v>
-      </c>
-      <c r="B7" s="197"/>
-      <c r="C7" s="197"/>
-      <c r="D7" s="197"/>
-      <c r="E7" s="197"/>
+        <v>0</v>
+      </c>
+      <c r="B7" s="193"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
       <c r="H7" s="16"/>
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="26" thickBot="1">
-      <c r="A8" s="198" t="str">
+      <c r="A8" s="194">
         <f>見積書0!A8</f>
-        <v>青山</v>
-      </c>
-      <c r="B8" s="198"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="198"/>
+        <v>0</v>
+      </c>
+      <c r="B8" s="194"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="194"/>
       <c r="E8" s="77" t="s">
         <v>44</v>
       </c>
@@ -6756,11 +6219,11 @@
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="22.5">
-      <c r="A9" s="178"/>
-      <c r="B9" s="178"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="178"/>
-      <c r="E9" s="178"/>
+      <c r="A9" s="183"/>
+      <c r="B9" s="183"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
       <c r="F9" s="14"/>
       <c r="H9" s="20" t="s">
         <v>4</v>
@@ -6768,9 +6231,9 @@
       <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="23" thickBot="1">
-      <c r="A10" s="111" t="str">
+      <c r="A10" s="111">
         <f>見積書0!B17</f>
-        <v>パピルス化成株式会社江別工場　改修</v>
+        <v>0</v>
       </c>
       <c r="B10" s="172"/>
       <c r="C10" s="172"/>
@@ -6783,13 +6246,13 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="7" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="181" t="s">
+      <c r="A11" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="182"/>
-      <c r="C11" s="182"/>
-      <c r="D11" s="182"/>
-      <c r="E11" s="182"/>
+      <c r="B11" s="187"/>
+      <c r="C11" s="187"/>
+      <c r="D11" s="187"/>
+      <c r="E11" s="187"/>
       <c r="F11" s="32" t="s">
         <v>19</v>
       </c>
@@ -6799,10 +6262,10 @@
       <c r="H11" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="174" t="s">
+      <c r="I11" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="175"/>
+      <c r="J11" s="180"/>
       <c r="L11" s="35"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
@@ -6814,11 +6277,11 @@
       <c r="F12" s="82"/>
       <c r="G12" s="83"/>
       <c r="H12" s="84"/>
-      <c r="I12" s="211">
+      <c r="I12" s="209">
         <f t="shared" ref="I12:I44" si="0">IFERROR(F12*H12,"")</f>
         <v>0</v>
       </c>
-      <c r="J12" s="212"/>
+      <c r="J12" s="210"/>
       <c r="M12" s="2" t="s">
         <v>25</v>
       </c>
@@ -6850,11 +6313,11 @@
       <c r="F14" s="90"/>
       <c r="G14" s="95"/>
       <c r="H14" s="96"/>
-      <c r="I14" s="209">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="210"/>
+      <c r="I14" s="213">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="214"/>
       <c r="M14" s="2" t="s">
         <v>38</v>
       </c>
@@ -6868,11 +6331,11 @@
       <c r="F15" s="90"/>
       <c r="G15" s="95"/>
       <c r="H15" s="96"/>
-      <c r="I15" s="213">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="214"/>
+      <c r="I15" s="211">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="212"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A16" s="85"/>
@@ -6883,11 +6346,11 @@
       <c r="F16" s="90"/>
       <c r="G16" s="95"/>
       <c r="H16" s="96"/>
-      <c r="I16" s="209">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="210"/>
+      <c r="I16" s="213">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="214"/>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A17" s="98"/>
@@ -7378,11 +6841,11 @@
       <c r="H45" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I45" s="176">
+      <c r="I45" s="181">
         <f>SUM(I12:J44)</f>
         <v>0</v>
       </c>
-      <c r="J45" s="177"/>
+      <c r="J45" s="182"/>
       <c r="M45" s="71" t="s">
         <v>38</v>
       </c>
@@ -7486,6 +6949,36 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="I35:J35"/>
@@ -7498,36 +6991,6 @@
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -7568,13 +7031,13 @@
       <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="5" t="str">
+      <c r="I1" s="5">
         <f>見積書0!I1</f>
-        <v>UC-3708</v>
+        <v>0</v>
       </c>
       <c r="J1" s="6">
         <f>見積書0!J1</f>
-        <v>2023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="2" customFormat="1" ht="12" customHeight="1">
@@ -7587,25 +7050,25 @@
       <c r="F3" s="3"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="183">
+      <c r="I3" s="174">
         <f ca="1">見積書0!I3</f>
-        <v>45903</v>
-      </c>
-      <c r="J3" s="183"/>
+        <v>45906</v>
+      </c>
+      <c r="J3" s="174"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A4" s="184" t="s">
+      <c r="A4" s="175" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="184"/>
-      <c r="C4" s="184"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="184"/>
-      <c r="I4" s="184"/>
-      <c r="J4" s="184"/>
+      <c r="B4" s="175"/>
+      <c r="C4" s="175"/>
+      <c r="D4" s="175"/>
+      <c r="E4" s="175"/>
+      <c r="F4" s="175"/>
+      <c r="G4" s="175"/>
+      <c r="H4" s="175"/>
+      <c r="I4" s="175"/>
+      <c r="J4" s="175"/>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="7.5" customHeight="1">
       <c r="A5" s="11"/>
@@ -7619,41 +7082,41 @@
       <c r="I5" s="171"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A6" s="196" t="str">
+      <c r="A6" s="192">
         <f>見積書0!A6</f>
-        <v>文化シヤッター株式会社</v>
-      </c>
-      <c r="B6" s="196"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="196"/>
-      <c r="E6" s="196"/>
+        <v>0</v>
+      </c>
+      <c r="B6" s="192"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
       <c r="F6" s="12"/>
       <c r="G6" s="171"/>
       <c r="H6" s="13"/>
       <c r="I6" s="171"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="22.5">
-      <c r="A7" s="197" t="str">
+      <c r="A7" s="193">
         <f>見積書0!A7</f>
-        <v>北海道支店　設計施工管理部設計課</v>
-      </c>
-      <c r="B7" s="197"/>
-      <c r="C7" s="197"/>
-      <c r="D7" s="197"/>
-      <c r="E7" s="197"/>
+        <v>0</v>
+      </c>
+      <c r="B7" s="193"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="193"/>
+      <c r="E7" s="193"/>
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
       <c r="H7" s="16"/>
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="26" thickBot="1">
-      <c r="A8" s="198" t="str">
+      <c r="A8" s="194">
         <f>見積書0!A8</f>
-        <v>青山</v>
-      </c>
-      <c r="B8" s="198"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="198"/>
+        <v>0</v>
+      </c>
+      <c r="B8" s="194"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="194"/>
       <c r="E8" s="77" t="s">
         <v>44</v>
       </c>
@@ -7663,11 +7126,11 @@
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="22.5">
-      <c r="A9" s="178"/>
-      <c r="B9" s="178"/>
-      <c r="C9" s="178"/>
-      <c r="D9" s="178"/>
-      <c r="E9" s="178"/>
+      <c r="A9" s="183"/>
+      <c r="B9" s="183"/>
+      <c r="C9" s="183"/>
+      <c r="D9" s="183"/>
+      <c r="E9" s="183"/>
       <c r="F9" s="14"/>
       <c r="H9" s="20" t="s">
         <v>4</v>
@@ -7675,9 +7138,9 @@
       <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="23" thickBot="1">
-      <c r="A10" s="111" t="str">
+      <c r="A10" s="111">
         <f>見積書0!B17</f>
-        <v>パピルス化成株式会社江別工場　改修</v>
+        <v>0</v>
       </c>
       <c r="B10" s="172"/>
       <c r="C10" s="172"/>
@@ -7690,13 +7153,13 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="7" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="181" t="s">
+      <c r="A11" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="182"/>
-      <c r="C11" s="182"/>
-      <c r="D11" s="182"/>
-      <c r="E11" s="182"/>
+      <c r="B11" s="187"/>
+      <c r="C11" s="187"/>
+      <c r="D11" s="187"/>
+      <c r="E11" s="187"/>
       <c r="F11" s="32" t="s">
         <v>19</v>
       </c>
@@ -7706,10 +7169,10 @@
       <c r="H11" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="174" t="s">
+      <c r="I11" s="179" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="175"/>
+      <c r="J11" s="180"/>
       <c r="L11" s="35"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
@@ -7721,11 +7184,11 @@
       <c r="F12" s="82"/>
       <c r="G12" s="83"/>
       <c r="H12" s="84"/>
-      <c r="I12" s="211">
+      <c r="I12" s="209">
         <f t="shared" ref="I12:I44" si="0">IFERROR(F12*H12,"")</f>
         <v>0</v>
       </c>
-      <c r="J12" s="212"/>
+      <c r="J12" s="210"/>
       <c r="M12" s="2" t="s">
         <v>25</v>
       </c>
@@ -7757,11 +7220,11 @@
       <c r="F14" s="90"/>
       <c r="G14" s="95"/>
       <c r="H14" s="96"/>
-      <c r="I14" s="209">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="210"/>
+      <c r="I14" s="213">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="214"/>
       <c r="M14" s="2" t="s">
         <v>38</v>
       </c>
@@ -7775,11 +7238,11 @@
       <c r="F15" s="90"/>
       <c r="G15" s="95"/>
       <c r="H15" s="96"/>
-      <c r="I15" s="213">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="214"/>
+      <c r="I15" s="211">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="212"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A16" s="85"/>
@@ -7790,11 +7253,11 @@
       <c r="F16" s="90"/>
       <c r="G16" s="95"/>
       <c r="H16" s="96"/>
-      <c r="I16" s="209">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="210"/>
+      <c r="I16" s="213">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="214"/>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A17" s="98"/>
@@ -8285,11 +7748,11 @@
       <c r="H45" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I45" s="176">
+      <c r="I45" s="181">
         <f>SUM(I12:J44)</f>
         <v>0</v>
       </c>
-      <c r="J45" s="177"/>
+      <c r="J45" s="182"/>
       <c r="M45" s="71" t="s">
         <v>38</v>
       </c>
@@ -8393,6 +7856,36 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="I35:J35"/>
@@ -8405,36 +7898,6 @@
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="I43:J43"/>
     <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/お見積書（明細）.xlsx
+++ b/お見積書（明細）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ukish\Desktop\GPT\estimate_app_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD03E23-BA66-48AD-94A9-BD887ED3EAF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806F3D02-9616-4A05-8104-B31FA7FF98D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="2600" windowWidth="19200" windowHeight="11250" tabRatio="725" activeTab="1" autoFilterDateGrouping="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="-16110" windowWidth="25820" windowHeight="16220" tabRatio="725" autoFilterDateGrouping="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="見積書0" sheetId="19" r:id="rId1"/>
@@ -2101,6 +2101,33 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="38" fontId="17" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="17" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="14" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2116,39 +2143,24 @@
     <xf numFmtId="3" fontId="14" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="17" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="14" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="38" fontId="10" fillId="0" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="10" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="10" fillId="0" borderId="52" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="46" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="38" fontId="10" fillId="0" borderId="41" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2164,17 +2176,11 @@
     <xf numFmtId="3" fontId="20" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="46" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="38" fontId="10" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="10" fillId="0" borderId="52" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="10" fillId="0" borderId="46" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2182,30 +2188,30 @@
     <xf numFmtId="38" fontId="10" fillId="0" borderId="47" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="46" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="38" fontId="10" fillId="0" borderId="41" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="10" fillId="0" borderId="42" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="46" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="47" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="51" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="10" fillId="0" borderId="52" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="38" fontId="10" fillId="0" borderId="23" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="10" fillId="0" borderId="34" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="38" fontId="10" fillId="0" borderId="31" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2217,12 +2223,6 @@
     </xf>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="23" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="34" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2549,8 +2549,8 @@
   </sheetPr>
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView showZeros="0" showRuler="0" showOutlineSymbols="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView showZeros="0" tabSelected="1" showRuler="0" showOutlineSymbols="0" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -2590,25 +2590,25 @@
       <c r="F3" s="3"/>
       <c r="G3" s="7"/>
       <c r="H3" s="123"/>
-      <c r="I3" s="174">
+      <c r="I3" s="183">
         <f ca="1">TODAY()</f>
-        <v>45906</v>
-      </c>
-      <c r="J3" s="174"/>
+        <v>45909</v>
+      </c>
+      <c r="J3" s="183"/>
     </row>
     <row r="4" spans="1:10" s="2" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A4" s="175" t="s">
+      <c r="A4" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="175"/>
-      <c r="J4" s="175"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="184"/>
     </row>
     <row r="5" spans="1:10" s="2" customFormat="1" ht="7.5" customHeight="1">
       <c r="A5" s="11"/>
@@ -2622,32 +2622,32 @@
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:10" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A6" s="176"/>
-      <c r="B6" s="176"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="176"/>
-      <c r="E6" s="176"/>
+      <c r="A6" s="185"/>
+      <c r="B6" s="185"/>
+      <c r="C6" s="185"/>
+      <c r="D6" s="185"/>
+      <c r="E6" s="185"/>
       <c r="F6" s="12"/>
       <c r="G6" s="10"/>
       <c r="H6" s="125"/>
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:10" s="2" customFormat="1" ht="22.5">
-      <c r="A7" s="177"/>
-      <c r="B7" s="177"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="177"/>
+      <c r="A7" s="186"/>
+      <c r="B7" s="186"/>
+      <c r="C7" s="186"/>
+      <c r="D7" s="186"/>
+      <c r="E7" s="186"/>
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
       <c r="H7" s="126"/>
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:10" s="2" customFormat="1" ht="26" thickBot="1">
-      <c r="A8" s="178"/>
-      <c r="B8" s="178"/>
-      <c r="C8" s="178"/>
-      <c r="D8" s="178"/>
+      <c r="A8" s="187"/>
+      <c r="B8" s="187"/>
+      <c r="C8" s="187"/>
+      <c r="D8" s="187"/>
       <c r="E8" s="18" t="s">
         <v>44</v>
       </c>
@@ -2657,26 +2657,26 @@
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:10" s="2" customFormat="1" ht="22.5">
-      <c r="A9" s="183" t="s">
+      <c r="A9" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="183"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
       <c r="F9" s="14"/>
       <c r="G9" s="15"/>
       <c r="H9" s="126"/>
       <c r="I9" s="17"/>
     </row>
     <row r="10" spans="1:10" s="2" customFormat="1" ht="22.5">
-      <c r="A10" s="183" t="s">
+      <c r="A10" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="183"/>
-      <c r="C10" s="183"/>
-      <c r="D10" s="183"/>
-      <c r="E10" s="183"/>
+      <c r="B10" s="178"/>
+      <c r="C10" s="178"/>
+      <c r="D10" s="178"/>
+      <c r="E10" s="178"/>
       <c r="F10" s="14"/>
       <c r="H10" s="127" t="s">
         <v>4</v>
@@ -2700,11 +2700,11 @@
         <v>6</v>
       </c>
       <c r="B12" s="22"/>
-      <c r="C12" s="184">
+      <c r="C12" s="179">
         <f>I45</f>
         <v>0</v>
       </c>
-      <c r="D12" s="184"/>
+      <c r="D12" s="179"/>
       <c r="E12" s="23" t="s">
         <v>7</v>
       </c>
@@ -2725,10 +2725,10 @@
       <c r="A14" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="185">
+      <c r="B14" s="180">
         <v>45926</v>
       </c>
-      <c r="C14" s="185"/>
+      <c r="C14" s="180"/>
       <c r="D14" s="25"/>
       <c r="E14" s="26"/>
       <c r="F14" s="3"/>
@@ -2808,13 +2808,13 @@
       <c r="I19" s="31"/>
     </row>
     <row r="20" spans="1:13" s="7" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A20" s="186" t="s">
+      <c r="A20" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="187"/>
-      <c r="C20" s="187"/>
-      <c r="D20" s="187"/>
-      <c r="E20" s="187"/>
+      <c r="B20" s="182"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="182"/>
       <c r="F20" s="32" t="s">
         <v>19</v>
       </c>
@@ -2824,10 +2824,10 @@
       <c r="H20" s="133" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="179" t="s">
+      <c r="I20" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="J20" s="180"/>
+      <c r="J20" s="175"/>
       <c r="L20" s="35"/>
     </row>
     <row r="21" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
@@ -3260,11 +3260,11 @@
       <c r="H45" s="133" t="s">
         <v>23</v>
       </c>
-      <c r="I45" s="181">
+      <c r="I45" s="176">
         <f>SUM(I21:J44)</f>
         <v>0</v>
       </c>
-      <c r="J45" s="182"/>
+      <c r="J45" s="177"/>
       <c r="M45" s="71" t="s">
         <v>38</v>
       </c>
@@ -3346,6 +3346,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:D8"/>
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="A9:E9"/>
@@ -3353,11 +3358,6 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="A20:E20"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -3372,7 +3372,7 @@
   </sheetPr>
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" showRuler="0" showOutlineSymbols="0" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A33" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showZeros="0" showRuler="0" showOutlineSymbols="0" showWhiteSpace="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -3417,25 +3417,25 @@
       <c r="F3" s="3"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="174">
+      <c r="I3" s="183">
         <f ca="1">見積書0!I3</f>
-        <v>45906</v>
-      </c>
-      <c r="J3" s="174"/>
+        <v>45909</v>
+      </c>
+      <c r="J3" s="183"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A4" s="175" t="s">
+      <c r="A4" s="184" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="175"/>
-      <c r="J4" s="175"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="184"/>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="7.5" customHeight="1">
       <c r="A5" s="11"/>
@@ -3449,41 +3449,41 @@
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A6" s="192">
+      <c r="A6" s="196">
         <f>見積書0!A6</f>
         <v>0</v>
       </c>
-      <c r="B6" s="192"/>
-      <c r="C6" s="192"/>
-      <c r="D6" s="192"/>
-      <c r="E6" s="192"/>
+      <c r="B6" s="196"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
       <c r="F6" s="12"/>
       <c r="G6" s="10"/>
       <c r="H6" s="13"/>
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="22.5">
-      <c r="A7" s="193">
+      <c r="A7" s="197">
         <f>見積書0!A7</f>
         <v>0</v>
       </c>
-      <c r="B7" s="193"/>
-      <c r="C7" s="193"/>
-      <c r="D7" s="193"/>
-      <c r="E7" s="193"/>
+      <c r="B7" s="197"/>
+      <c r="C7" s="197"/>
+      <c r="D7" s="197"/>
+      <c r="E7" s="197"/>
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
       <c r="H7" s="16"/>
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="26" thickBot="1">
-      <c r="A8" s="194">
+      <c r="A8" s="198">
         <f>見積書0!A8</f>
         <v>0</v>
       </c>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="198"/>
       <c r="E8" s="77" t="s">
         <v>44</v>
       </c>
@@ -3493,11 +3493,11 @@
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="22.5">
-      <c r="A9" s="183"/>
-      <c r="B9" s="183"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
+      <c r="A9" s="178"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
       <c r="F9" s="14"/>
       <c r="H9" s="20" t="s">
         <v>4</v>
@@ -3520,13 +3520,13 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="7" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="186" t="s">
+      <c r="A11" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="187"/>
-      <c r="C11" s="187"/>
-      <c r="D11" s="187"/>
-      <c r="E11" s="187"/>
+      <c r="B11" s="182"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="182"/>
       <c r="F11" s="32" t="s">
         <v>19</v>
       </c>
@@ -3536,10 +3536,10 @@
       <c r="H11" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="179" t="s">
+      <c r="I11" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="180"/>
+      <c r="J11" s="175"/>
       <c r="L11" s="35"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
@@ -3551,11 +3551,11 @@
       <c r="F12" s="142"/>
       <c r="G12" s="143"/>
       <c r="H12" s="144"/>
-      <c r="I12" s="190">
+      <c r="I12" s="194">
         <f t="shared" ref="I12" si="0">IFERROR(F12*H12,"")</f>
         <v>0</v>
       </c>
-      <c r="J12" s="191"/>
+      <c r="J12" s="195"/>
       <c r="M12" s="2" t="s">
         <v>25</v>
       </c>
@@ -3636,11 +3636,11 @@
       <c r="F17" s="148"/>
       <c r="G17" s="155"/>
       <c r="H17" s="156"/>
-      <c r="I17" s="195">
+      <c r="I17" s="192">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J17" s="196"/>
+      <c r="J17" s="193"/>
       <c r="K17" s="120"/>
     </row>
     <row r="18" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
@@ -4135,11 +4135,11 @@
       <c r="F45" s="167"/>
       <c r="G45" s="168"/>
       <c r="H45" s="169"/>
-      <c r="I45" s="197">
+      <c r="I45" s="190">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J45" s="198"/>
+      <c r="J45" s="191"/>
       <c r="K45" s="120"/>
     </row>
     <row r="46" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1" thickBot="1">
@@ -4151,11 +4151,11 @@
       <c r="F46" s="56"/>
       <c r="G46" s="57"/>
       <c r="H46" s="34"/>
-      <c r="I46" s="181">
+      <c r="I46" s="176">
         <f>SUM(I12:J45)</f>
         <v>0</v>
       </c>
-      <c r="J46" s="182"/>
+      <c r="J46" s="177"/>
       <c r="K46" s="120">
         <f>SUM(I14:J42)</f>
         <v>0</v>
@@ -4247,26 +4247,17 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I15:J15"/>
     <mergeCell ref="I16:J16"/>
@@ -4279,17 +4270,26 @@
     <mergeCell ref="I23:J23"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I41:J41"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -4305,7 +4305,7 @@
   <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView showZeros="0" showRuler="0" showOutlineSymbols="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:H20"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -4349,25 +4349,25 @@
       <c r="F3" s="3"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="174">
+      <c r="I3" s="183">
         <f ca="1">見積書0!I3</f>
-        <v>45906</v>
-      </c>
-      <c r="J3" s="174"/>
+        <v>45909</v>
+      </c>
+      <c r="J3" s="183"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A4" s="175" t="s">
+      <c r="A4" s="184" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="175"/>
-      <c r="J4" s="175"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="184"/>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="7.5" customHeight="1">
       <c r="A5" s="11"/>
@@ -4381,41 +4381,41 @@
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A6" s="192">
+      <c r="A6" s="196">
         <f>見積書0!A6</f>
         <v>0</v>
       </c>
-      <c r="B6" s="192"/>
-      <c r="C6" s="192"/>
-      <c r="D6" s="192"/>
-      <c r="E6" s="192"/>
+      <c r="B6" s="196"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
       <c r="F6" s="12"/>
       <c r="G6" s="10"/>
       <c r="H6" s="13"/>
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="22.5">
-      <c r="A7" s="193">
+      <c r="A7" s="197">
         <f>見積書0!A7</f>
         <v>0</v>
       </c>
-      <c r="B7" s="193"/>
-      <c r="C7" s="193"/>
-      <c r="D7" s="193"/>
-      <c r="E7" s="193"/>
+      <c r="B7" s="197"/>
+      <c r="C7" s="197"/>
+      <c r="D7" s="197"/>
+      <c r="E7" s="197"/>
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
       <c r="H7" s="16"/>
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="26" thickBot="1">
-      <c r="A8" s="194">
+      <c r="A8" s="198">
         <f>見積書0!A8</f>
         <v>0</v>
       </c>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="198"/>
       <c r="E8" s="77" t="s">
         <v>44</v>
       </c>
@@ -4425,11 +4425,11 @@
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="22.5">
-      <c r="A9" s="183"/>
-      <c r="B9" s="183"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
+      <c r="A9" s="178"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
       <c r="F9" s="14"/>
       <c r="H9" s="20" t="s">
         <v>4</v>
@@ -4452,13 +4452,13 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="7" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="186" t="s">
+      <c r="A11" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="187"/>
-      <c r="C11" s="187"/>
-      <c r="D11" s="187"/>
-      <c r="E11" s="187"/>
+      <c r="B11" s="182"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="182"/>
       <c r="F11" s="32" t="s">
         <v>19</v>
       </c>
@@ -4468,10 +4468,10 @@
       <c r="H11" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="179" t="s">
+      <c r="I11" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="180"/>
+      <c r="J11" s="175"/>
       <c r="L11" s="35"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
@@ -4483,11 +4483,11 @@
       <c r="F12" s="142"/>
       <c r="G12" s="143"/>
       <c r="H12" s="144"/>
-      <c r="I12" s="201">
+      <c r="I12" s="205">
         <f>IFERROR(F12*H12,"")</f>
         <v>0</v>
       </c>
-      <c r="J12" s="202"/>
+      <c r="J12" s="206"/>
       <c r="M12" s="2" t="s">
         <v>25</v>
       </c>
@@ -4501,11 +4501,11 @@
       <c r="F13" s="148"/>
       <c r="G13" s="149"/>
       <c r="H13" s="150"/>
-      <c r="I13" s="199">
+      <c r="I13" s="201">
         <f t="shared" ref="I13:I44" si="0">IFERROR(F13*H13,"")</f>
         <v>0</v>
       </c>
-      <c r="J13" s="200"/>
+      <c r="J13" s="202"/>
       <c r="M13" s="2" t="s">
         <v>25</v>
       </c>
@@ -4519,11 +4519,11 @@
       <c r="F14" s="148"/>
       <c r="G14" s="149"/>
       <c r="H14" s="150"/>
-      <c r="I14" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="200"/>
+      <c r="I14" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="202"/>
       <c r="M14" s="2" t="s">
         <v>30</v>
       </c>
@@ -4537,11 +4537,11 @@
       <c r="F15" s="148"/>
       <c r="G15" s="155"/>
       <c r="H15" s="156"/>
-      <c r="I15" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="200"/>
+      <c r="I15" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="202"/>
       <c r="M15" s="2" t="s">
         <v>38</v>
       </c>
@@ -4570,11 +4570,11 @@
       <c r="F17" s="148"/>
       <c r="G17" s="155"/>
       <c r="H17" s="156"/>
-      <c r="I17" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="200"/>
+      <c r="I17" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="202"/>
       <c r="M17" s="2" t="s">
         <v>26</v>
       </c>
@@ -4588,11 +4588,11 @@
       <c r="F18" s="148"/>
       <c r="G18" s="155"/>
       <c r="H18" s="156"/>
-      <c r="I18" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="200"/>
+      <c r="I18" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="202"/>
       <c r="K18" s="121"/>
       <c r="M18" s="2" t="s">
         <v>27</v>
@@ -4607,11 +4607,11 @@
       <c r="F19" s="148"/>
       <c r="G19" s="155"/>
       <c r="H19" s="156"/>
-      <c r="I19" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="200"/>
+      <c r="I19" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="202"/>
       <c r="K19" s="121"/>
       <c r="M19" s="2" t="s">
         <v>30</v>
@@ -4626,11 +4626,11 @@
       <c r="F20" s="148"/>
       <c r="G20" s="155"/>
       <c r="H20" s="156"/>
-      <c r="I20" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="200"/>
+      <c r="I20" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="202"/>
       <c r="M20" s="2" t="s">
         <v>38</v>
       </c>
@@ -4644,11 +4644,11 @@
       <c r="F21" s="148"/>
       <c r="G21" s="155"/>
       <c r="H21" s="156"/>
-      <c r="I21" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="200"/>
+      <c r="I21" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="202"/>
     </row>
     <row r="22" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A22" s="145"/>
@@ -4659,11 +4659,11 @@
       <c r="F22" s="148"/>
       <c r="G22" s="149"/>
       <c r="H22" s="150"/>
-      <c r="I22" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="200"/>
+      <c r="I22" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="202"/>
       <c r="M22" s="2" t="s">
         <v>26</v>
       </c>
@@ -4677,11 +4677,11 @@
       <c r="F23" s="148"/>
       <c r="G23" s="149"/>
       <c r="H23" s="156"/>
-      <c r="I23" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="200"/>
+      <c r="I23" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="202"/>
       <c r="M23" s="2" t="s">
         <v>29</v>
       </c>
@@ -4695,11 +4695,11 @@
       <c r="F24" s="148"/>
       <c r="G24" s="149"/>
       <c r="H24" s="150"/>
-      <c r="I24" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="200"/>
+      <c r="I24" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="202"/>
       <c r="M24" s="2" t="s">
         <v>30</v>
       </c>
@@ -4713,11 +4713,11 @@
       <c r="F25" s="148"/>
       <c r="G25" s="149"/>
       <c r="H25" s="156"/>
-      <c r="I25" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="200"/>
+      <c r="I25" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="202"/>
       <c r="M25" s="2" t="s">
         <v>38</v>
       </c>
@@ -4731,11 +4731,11 @@
       <c r="F26" s="148"/>
       <c r="G26" s="149"/>
       <c r="H26" s="156"/>
-      <c r="I26" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="200"/>
+      <c r="I26" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="202"/>
     </row>
     <row r="27" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A27" s="145"/>
@@ -4746,11 +4746,11 @@
       <c r="F27" s="148"/>
       <c r="G27" s="149"/>
       <c r="H27" s="150"/>
-      <c r="I27" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="200"/>
+      <c r="I27" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="202"/>
       <c r="M27" s="2" t="s">
         <v>28</v>
       </c>
@@ -4764,11 +4764,11 @@
       <c r="F28" s="148"/>
       <c r="G28" s="149"/>
       <c r="H28" s="150"/>
-      <c r="I28" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="200"/>
+      <c r="I28" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="202"/>
       <c r="M28" s="71" t="s">
         <v>31</v>
       </c>
@@ -4782,11 +4782,11 @@
       <c r="F29" s="148"/>
       <c r="G29" s="149"/>
       <c r="H29" s="150"/>
-      <c r="I29" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="200"/>
+      <c r="I29" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="202"/>
       <c r="M29" s="71"/>
     </row>
     <row r="30" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
@@ -4798,11 +4798,11 @@
       <c r="F30" s="148"/>
       <c r="G30" s="149"/>
       <c r="H30" s="150"/>
-      <c r="I30" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="200"/>
+      <c r="I30" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="202"/>
       <c r="M30" s="71" t="s">
         <v>32</v>
       </c>
@@ -4816,11 +4816,11 @@
       <c r="F31" s="148"/>
       <c r="G31" s="149"/>
       <c r="H31" s="150"/>
-      <c r="I31" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="200"/>
+      <c r="I31" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="202"/>
       <c r="M31" s="71" t="s">
         <v>39</v>
       </c>
@@ -4834,11 +4834,11 @@
       <c r="F32" s="148"/>
       <c r="G32" s="149"/>
       <c r="H32" s="150"/>
-      <c r="I32" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="200"/>
+      <c r="I32" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="202"/>
       <c r="M32" s="71" t="s">
         <v>40</v>
       </c>
@@ -4852,11 +4852,11 @@
       <c r="F33" s="148"/>
       <c r="G33" s="149"/>
       <c r="H33" s="150"/>
-      <c r="I33" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="200"/>
+      <c r="I33" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="202"/>
       <c r="M33" s="71" t="s">
         <v>41</v>
       </c>
@@ -4870,11 +4870,11 @@
       <c r="F34" s="148"/>
       <c r="G34" s="149"/>
       <c r="H34" s="156"/>
-      <c r="I34" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="200"/>
+      <c r="I34" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="202"/>
       <c r="M34" s="71"/>
     </row>
     <row r="35" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
@@ -4886,11 +4886,11 @@
       <c r="F35" s="148"/>
       <c r="G35" s="149"/>
       <c r="H35" s="156"/>
-      <c r="I35" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="200"/>
+      <c r="I35" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="202"/>
       <c r="M35" s="71"/>
     </row>
     <row r="36" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
@@ -4902,11 +4902,11 @@
       <c r="F36" s="148"/>
       <c r="G36" s="149"/>
       <c r="H36" s="156"/>
-      <c r="I36" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="200"/>
+      <c r="I36" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="202"/>
       <c r="M36" s="71"/>
     </row>
     <row r="37" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
@@ -4918,11 +4918,11 @@
       <c r="F37" s="148"/>
       <c r="G37" s="149"/>
       <c r="H37" s="156"/>
-      <c r="I37" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="200"/>
+      <c r="I37" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="202"/>
       <c r="M37" s="71"/>
     </row>
     <row r="38" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
@@ -4934,11 +4934,11 @@
       <c r="F38" s="148"/>
       <c r="G38" s="149"/>
       <c r="H38" s="156"/>
-      <c r="I38" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="200"/>
+      <c r="I38" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="202"/>
       <c r="M38" s="71"/>
     </row>
     <row r="39" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
@@ -4950,11 +4950,11 @@
       <c r="F39" s="148"/>
       <c r="G39" s="149"/>
       <c r="H39" s="156"/>
-      <c r="I39" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="200"/>
+      <c r="I39" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="202"/>
       <c r="M39" s="71"/>
     </row>
     <row r="40" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
@@ -4966,11 +4966,11 @@
       <c r="F40" s="148"/>
       <c r="G40" s="149"/>
       <c r="H40" s="156"/>
-      <c r="I40" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="200"/>
+      <c r="I40" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="202"/>
       <c r="M40" s="71"/>
     </row>
     <row r="41" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
@@ -4982,11 +4982,11 @@
       <c r="F41" s="148"/>
       <c r="G41" s="149"/>
       <c r="H41" s="156"/>
-      <c r="I41" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="200"/>
+      <c r="I41" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="202"/>
       <c r="M41" s="71"/>
     </row>
     <row r="42" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
@@ -4998,11 +4998,11 @@
       <c r="F42" s="148"/>
       <c r="G42" s="149"/>
       <c r="H42" s="156"/>
-      <c r="I42" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="200"/>
+      <c r="I42" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="202"/>
       <c r="M42" s="71"/>
     </row>
     <row r="43" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
@@ -5014,11 +5014,11 @@
       <c r="F43" s="148"/>
       <c r="G43" s="149"/>
       <c r="H43" s="156"/>
-      <c r="I43" s="199">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="200"/>
+      <c r="I43" s="201">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="202"/>
       <c r="M43" s="71" t="s">
         <v>26</v>
       </c>
@@ -5032,11 +5032,11 @@
       <c r="F44" s="167"/>
       <c r="G44" s="168"/>
       <c r="H44" s="169"/>
-      <c r="I44" s="205">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="206"/>
+      <c r="I44" s="199">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="200"/>
       <c r="M44" s="71" t="s">
         <v>29</v>
       </c>
@@ -5052,8 +5052,8 @@
       <c r="H45" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I45" s="181"/>
-      <c r="J45" s="182"/>
+      <c r="I45" s="176"/>
+      <c r="J45" s="177"/>
       <c r="M45" s="71" t="s">
         <v>38</v>
       </c>
@@ -5135,6 +5135,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="I44:J44"/>
     <mergeCell ref="I26:J26"/>
@@ -5151,32 +5177,6 @@
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="I11:J11"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5192,7 +5192,7 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView showZeros="0" showRuler="0" showOutlineSymbols="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22:J22"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -5236,25 +5236,25 @@
       <c r="F3" s="3"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="174">
+      <c r="I3" s="183">
         <f ca="1">見積書0!I3</f>
-        <v>45906</v>
-      </c>
-      <c r="J3" s="174"/>
+        <v>45909</v>
+      </c>
+      <c r="J3" s="183"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A4" s="175" t="s">
+      <c r="A4" s="184" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="175"/>
-      <c r="J4" s="175"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="184"/>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="7.5" customHeight="1">
       <c r="A5" s="11"/>
@@ -5268,41 +5268,41 @@
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A6" s="192">
+      <c r="A6" s="196">
         <f>見積書0!A6</f>
         <v>0</v>
       </c>
-      <c r="B6" s="192"/>
-      <c r="C6" s="192"/>
-      <c r="D6" s="192"/>
-      <c r="E6" s="192"/>
+      <c r="B6" s="196"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
       <c r="F6" s="12"/>
       <c r="G6" s="10"/>
       <c r="H6" s="13"/>
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="22.5">
-      <c r="A7" s="193">
+      <c r="A7" s="197">
         <f>見積書0!A7</f>
         <v>0</v>
       </c>
-      <c r="B7" s="193"/>
-      <c r="C7" s="193"/>
-      <c r="D7" s="193"/>
-      <c r="E7" s="193"/>
+      <c r="B7" s="197"/>
+      <c r="C7" s="197"/>
+      <c r="D7" s="197"/>
+      <c r="E7" s="197"/>
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
       <c r="H7" s="16"/>
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="26" thickBot="1">
-      <c r="A8" s="194">
+      <c r="A8" s="198">
         <f>見積書0!A8</f>
         <v>0</v>
       </c>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="198"/>
       <c r="E8" s="77" t="s">
         <v>44</v>
       </c>
@@ -5312,11 +5312,11 @@
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="22.5">
-      <c r="A9" s="183"/>
-      <c r="B9" s="183"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
+      <c r="A9" s="178"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
       <c r="F9" s="14"/>
       <c r="H9" s="20" t="s">
         <v>4</v>
@@ -5339,13 +5339,13 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="7" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="186" t="s">
+      <c r="A11" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="187"/>
-      <c r="C11" s="187"/>
-      <c r="D11" s="187"/>
-      <c r="E11" s="187"/>
+      <c r="B11" s="182"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="182"/>
       <c r="F11" s="32" t="s">
         <v>19</v>
       </c>
@@ -5355,10 +5355,10 @@
       <c r="H11" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="179" t="s">
+      <c r="I11" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="180"/>
+      <c r="J11" s="175"/>
       <c r="L11" s="35"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
@@ -5370,11 +5370,11 @@
       <c r="F12" s="82"/>
       <c r="G12" s="83"/>
       <c r="H12" s="84"/>
-      <c r="I12" s="209">
+      <c r="I12" s="211">
         <f t="shared" ref="I12" si="0">IFERROR(F12*H12,"")</f>
         <v>0</v>
       </c>
-      <c r="J12" s="210"/>
+      <c r="J12" s="212"/>
       <c r="M12" s="2" t="s">
         <v>25</v>
       </c>
@@ -5406,11 +5406,11 @@
       <c r="F14" s="90"/>
       <c r="G14" s="95"/>
       <c r="H14" s="96"/>
-      <c r="I14" s="213">
+      <c r="I14" s="209">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J14" s="214"/>
+      <c r="J14" s="210"/>
       <c r="M14" s="2" t="s">
         <v>38</v>
       </c>
@@ -5424,11 +5424,11 @@
       <c r="F15" s="90"/>
       <c r="G15" s="95"/>
       <c r="H15" s="96"/>
-      <c r="I15" s="211">
+      <c r="I15" s="213">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J15" s="212"/>
+      <c r="J15" s="214"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A16" s="85"/>
@@ -5439,11 +5439,11 @@
       <c r="F16" s="90"/>
       <c r="G16" s="95"/>
       <c r="H16" s="96"/>
-      <c r="I16" s="213">
+      <c r="I16" s="209">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J16" s="214"/>
+      <c r="J16" s="210"/>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A17" s="98"/>
@@ -5934,11 +5934,11 @@
       <c r="H45" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I45" s="181">
+      <c r="I45" s="176">
         <f>SUM(I12:J44)</f>
         <v>0</v>
       </c>
-      <c r="J45" s="182"/>
+      <c r="J45" s="177"/>
       <c r="M45" s="71" t="s">
         <v>38</v>
       </c>
@@ -6042,6 +6042,32 @@
     </row>
   </sheetData>
   <mergeCells count="42">
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
     <mergeCell ref="I45:J45"/>
     <mergeCell ref="I26:J26"/>
     <mergeCell ref="I27:J27"/>
@@ -6058,32 +6084,6 @@
     <mergeCell ref="I38:J38"/>
     <mergeCell ref="I37:J37"/>
     <mergeCell ref="I36:J36"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I15:J15"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -6099,7 +6099,7 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView showZeros="0" showRuler="0" showOutlineSymbols="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22:J22"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -6143,25 +6143,25 @@
       <c r="F3" s="3"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="174">
+      <c r="I3" s="183">
         <f ca="1">見積書0!I3</f>
-        <v>45906</v>
-      </c>
-      <c r="J3" s="174"/>
+        <v>45909</v>
+      </c>
+      <c r="J3" s="183"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A4" s="175" t="s">
+      <c r="A4" s="184" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="175"/>
-      <c r="J4" s="175"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="184"/>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="7.5" customHeight="1">
       <c r="A5" s="11"/>
@@ -6175,41 +6175,41 @@
       <c r="I5" s="171"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A6" s="192">
+      <c r="A6" s="196">
         <f>見積書0!A6</f>
         <v>0</v>
       </c>
-      <c r="B6" s="192"/>
-      <c r="C6" s="192"/>
-      <c r="D6" s="192"/>
-      <c r="E6" s="192"/>
+      <c r="B6" s="196"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
       <c r="F6" s="12"/>
       <c r="G6" s="171"/>
       <c r="H6" s="13"/>
       <c r="I6" s="171"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="22.5">
-      <c r="A7" s="193">
+      <c r="A7" s="197">
         <f>見積書0!A7</f>
         <v>0</v>
       </c>
-      <c r="B7" s="193"/>
-      <c r="C7" s="193"/>
-      <c r="D7" s="193"/>
-      <c r="E7" s="193"/>
+      <c r="B7" s="197"/>
+      <c r="C7" s="197"/>
+      <c r="D7" s="197"/>
+      <c r="E7" s="197"/>
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
       <c r="H7" s="16"/>
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="26" thickBot="1">
-      <c r="A8" s="194">
+      <c r="A8" s="198">
         <f>見積書0!A8</f>
         <v>0</v>
       </c>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="198"/>
       <c r="E8" s="77" t="s">
         <v>44</v>
       </c>
@@ -6219,11 +6219,11 @@
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="22.5">
-      <c r="A9" s="183"/>
-      <c r="B9" s="183"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
+      <c r="A9" s="178"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
       <c r="F9" s="14"/>
       <c r="H9" s="20" t="s">
         <v>4</v>
@@ -6246,13 +6246,13 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="7" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="186" t="s">
+      <c r="A11" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="187"/>
-      <c r="C11" s="187"/>
-      <c r="D11" s="187"/>
-      <c r="E11" s="187"/>
+      <c r="B11" s="182"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="182"/>
       <c r="F11" s="32" t="s">
         <v>19</v>
       </c>
@@ -6262,10 +6262,10 @@
       <c r="H11" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="179" t="s">
+      <c r="I11" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="180"/>
+      <c r="J11" s="175"/>
       <c r="L11" s="35"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
@@ -6277,11 +6277,11 @@
       <c r="F12" s="82"/>
       <c r="G12" s="83"/>
       <c r="H12" s="84"/>
-      <c r="I12" s="209">
+      <c r="I12" s="211">
         <f t="shared" ref="I12:I44" si="0">IFERROR(F12*H12,"")</f>
         <v>0</v>
       </c>
-      <c r="J12" s="210"/>
+      <c r="J12" s="212"/>
       <c r="M12" s="2" t="s">
         <v>25</v>
       </c>
@@ -6313,11 +6313,11 @@
       <c r="F14" s="90"/>
       <c r="G14" s="95"/>
       <c r="H14" s="96"/>
-      <c r="I14" s="213">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="214"/>
+      <c r="I14" s="209">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="210"/>
       <c r="M14" s="2" t="s">
         <v>38</v>
       </c>
@@ -6331,11 +6331,11 @@
       <c r="F15" s="90"/>
       <c r="G15" s="95"/>
       <c r="H15" s="96"/>
-      <c r="I15" s="211">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="212"/>
+      <c r="I15" s="213">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="214"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A16" s="85"/>
@@ -6346,11 +6346,11 @@
       <c r="F16" s="90"/>
       <c r="G16" s="95"/>
       <c r="H16" s="96"/>
-      <c r="I16" s="213">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="214"/>
+      <c r="I16" s="209">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="210"/>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A17" s="98"/>
@@ -6841,11 +6841,11 @@
       <c r="H45" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I45" s="181">
+      <c r="I45" s="176">
         <f>SUM(I12:J44)</f>
         <v>0</v>
       </c>
-      <c r="J45" s="182"/>
+      <c r="J45" s="177"/>
       <c r="M45" s="71" t="s">
         <v>38</v>
       </c>
@@ -6949,12 +6949,30 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="I11:J11"/>
@@ -6967,30 +6985,12 @@
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -7006,7 +7006,7 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView showZeros="0" showRuler="0" showOutlineSymbols="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -7050,25 +7050,25 @@
       <c r="F3" s="3"/>
       <c r="G3" s="7"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="174">
+      <c r="I3" s="183">
         <f ca="1">見積書0!I3</f>
-        <v>45906</v>
-      </c>
-      <c r="J3" s="174"/>
+        <v>45909</v>
+      </c>
+      <c r="J3" s="183"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="26.25" customHeight="1">
-      <c r="A4" s="175" t="s">
+      <c r="A4" s="184" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="175"/>
-      <c r="C4" s="175"/>
-      <c r="D4" s="175"/>
-      <c r="E4" s="175"/>
-      <c r="F4" s="175"/>
-      <c r="G4" s="175"/>
-      <c r="H4" s="175"/>
-      <c r="I4" s="175"/>
-      <c r="J4" s="175"/>
+      <c r="B4" s="184"/>
+      <c r="C4" s="184"/>
+      <c r="D4" s="184"/>
+      <c r="E4" s="184"/>
+      <c r="F4" s="184"/>
+      <c r="G4" s="184"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="184"/>
+      <c r="J4" s="184"/>
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="7.5" customHeight="1">
       <c r="A5" s="11"/>
@@ -7082,41 +7082,41 @@
       <c r="I5" s="171"/>
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A6" s="192">
+      <c r="A6" s="196">
         <f>見積書0!A6</f>
         <v>0</v>
       </c>
-      <c r="B6" s="192"/>
-      <c r="C6" s="192"/>
-      <c r="D6" s="192"/>
-      <c r="E6" s="192"/>
+      <c r="B6" s="196"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
       <c r="F6" s="12"/>
       <c r="G6" s="171"/>
       <c r="H6" s="13"/>
       <c r="I6" s="171"/>
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="22.5">
-      <c r="A7" s="193">
+      <c r="A7" s="197">
         <f>見積書0!A7</f>
         <v>0</v>
       </c>
-      <c r="B7" s="193"/>
-      <c r="C7" s="193"/>
-      <c r="D7" s="193"/>
-      <c r="E7" s="193"/>
+      <c r="B7" s="197"/>
+      <c r="C7" s="197"/>
+      <c r="D7" s="197"/>
+      <c r="E7" s="197"/>
       <c r="F7" s="14"/>
       <c r="G7" s="15"/>
       <c r="H7" s="16"/>
       <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="26" thickBot="1">
-      <c r="A8" s="194">
+      <c r="A8" s="198">
         <f>見積書0!A8</f>
         <v>0</v>
       </c>
-      <c r="B8" s="194"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="194"/>
+      <c r="B8" s="198"/>
+      <c r="C8" s="198"/>
+      <c r="D8" s="198"/>
       <c r="E8" s="77" t="s">
         <v>44</v>
       </c>
@@ -7126,11 +7126,11 @@
       <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="22.5">
-      <c r="A9" s="183"/>
-      <c r="B9" s="183"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="183"/>
-      <c r="E9" s="183"/>
+      <c r="A9" s="178"/>
+      <c r="B9" s="178"/>
+      <c r="C9" s="178"/>
+      <c r="D9" s="178"/>
+      <c r="E9" s="178"/>
       <c r="F9" s="14"/>
       <c r="H9" s="20" t="s">
         <v>4</v>
@@ -7153,13 +7153,13 @@
       </c>
     </row>
     <row r="11" spans="1:13" s="7" customFormat="1" ht="18" customHeight="1" thickBot="1">
-      <c r="A11" s="186" t="s">
+      <c r="A11" s="181" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="187"/>
-      <c r="C11" s="187"/>
-      <c r="D11" s="187"/>
-      <c r="E11" s="187"/>
+      <c r="B11" s="182"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="182"/>
       <c r="F11" s="32" t="s">
         <v>19</v>
       </c>
@@ -7169,10 +7169,10 @@
       <c r="H11" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="179" t="s">
+      <c r="I11" s="174" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="180"/>
+      <c r="J11" s="175"/>
       <c r="L11" s="35"/>
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
@@ -7184,11 +7184,11 @@
       <c r="F12" s="82"/>
       <c r="G12" s="83"/>
       <c r="H12" s="84"/>
-      <c r="I12" s="209">
+      <c r="I12" s="211">
         <f t="shared" ref="I12:I44" si="0">IFERROR(F12*H12,"")</f>
         <v>0</v>
       </c>
-      <c r="J12" s="210"/>
+      <c r="J12" s="212"/>
       <c r="M12" s="2" t="s">
         <v>25</v>
       </c>
@@ -7220,11 +7220,11 @@
       <c r="F14" s="90"/>
       <c r="G14" s="95"/>
       <c r="H14" s="96"/>
-      <c r="I14" s="213">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="214"/>
+      <c r="I14" s="209">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="210"/>
       <c r="M14" s="2" t="s">
         <v>38</v>
       </c>
@@ -7238,11 +7238,11 @@
       <c r="F15" s="90"/>
       <c r="G15" s="95"/>
       <c r="H15" s="96"/>
-      <c r="I15" s="211">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="212"/>
+      <c r="I15" s="213">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="214"/>
     </row>
     <row r="16" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A16" s="85"/>
@@ -7253,11 +7253,11 @@
       <c r="F16" s="90"/>
       <c r="G16" s="95"/>
       <c r="H16" s="96"/>
-      <c r="I16" s="213">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="214"/>
+      <c r="I16" s="209">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="210"/>
     </row>
     <row r="17" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A17" s="98"/>
@@ -7748,11 +7748,11 @@
       <c r="H45" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="I45" s="181">
+      <c r="I45" s="176">
         <f>SUM(I12:J44)</f>
         <v>0</v>
       </c>
-      <c r="J45" s="182"/>
+      <c r="J45" s="177"/>
       <c r="M45" s="71" t="s">
         <v>38</v>
       </c>
@@ -7856,12 +7856,30 @@
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="I11:J11"/>
@@ -7874,30 +7892,12 @@
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I34:J34"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="I40:J40"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/お見積書（明細）.xlsx
+++ b/お見積書（明細）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ukish\Desktop\GPT\estimate_app_web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806F3D02-9616-4A05-8104-B31FA7FF98D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB93A1E-92C9-442A-8EE1-7FCA5C1E684E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="-16110" windowWidth="25820" windowHeight="16220" tabRatio="725" autoFilterDateGrouping="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="47">
   <si>
     <t>見積No.</t>
     <rPh sb="0" eb="2">
@@ -617,16 +617,6 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>ベット</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>平和通り倉庫様</t>
-    <rPh sb="0" eb="3">
-      <t>ヘイワドオ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ソウコサマ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -2549,8 +2539,8 @@
   </sheetPr>
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" showRuler="0" showOutlineSymbols="0" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView showZeros="0" tabSelected="1" showRuler="0" showOutlineSymbols="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
@@ -2725,9 +2715,7 @@
       <c r="A14" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="180">
-        <v>45926</v>
-      </c>
+      <c r="B14" s="180"/>
       <c r="C14" s="180"/>
       <c r="D14" s="25"/>
       <c r="E14" s="26"/>
@@ -2741,9 +2729,7 @@
       <c r="A15" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="27" t="s">
-        <v>47</v>
-      </c>
+      <c r="B15" s="27"/>
       <c r="C15" s="25"/>
       <c r="D15" s="25"/>
       <c r="F15" s="3"/>
@@ -3373,7 +3359,7 @@
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView showZeros="0" showRuler="0" showOutlineSymbols="0" showWhiteSpace="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.5"/>
